--- a/tests/databooks/progbook_hypertension.xlsx
+++ b/tests/databooks/progbook_hypertension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3BFE53C7-160B-684B-9605-42F1D6A00109}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A5444F8A-0811-884C-A998-156373980893}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="32">
   <si>
     <t>Targeted to (populations)</t>
   </si>
@@ -75,15 +75,6 @@
     <t>Capacity constraints</t>
   </si>
   <si>
-    <t>Unit cost: best</t>
-  </si>
-  <si>
-    <t>Unit cost: low</t>
-  </si>
-  <si>
-    <t>Unit cost: high</t>
-  </si>
-  <si>
     <t>Value for a person covered by this program alone:</t>
   </si>
   <si>
@@ -118,6 +109,15 @@
   </si>
   <si>
     <t>Adherence</t>
+  </si>
+  <si>
+    <t>Unit cost</t>
+  </si>
+  <si>
+    <t>Coverage interation</t>
+  </si>
+  <si>
+    <t>Impact interaction</t>
   </si>
 </sst>
 </file>
@@ -590,7 +590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
@@ -632,10 +632,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="5"/>
@@ -660,10 +660,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="5">
@@ -688,10 +688,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="5">
@@ -720,10 +720,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="5">
@@ -752,10 +752,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="5">
@@ -809,10 +809,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="A22" sqref="A22:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -883,7 +883,7 @@
         <v>Screening - urban</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5">
@@ -898,44 +898,46 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="str">
-        <f>'Program targeting'!$C$3</f>
-        <v>Screening - urban</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="5"/>
+      <c r="E6" s="10">
+        <f>E3/E5</f>
+        <v>298.61111111111109</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="str">
-        <f>'Program targeting'!$C$3</f>
-        <v>Screening - urban</v>
+        <f>'Program targeting'!$C$4</f>
+        <v>Screening - rural</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="9">
+        <v>32500</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E8" s="10">
-        <f>E3/E5</f>
-        <v>298.61111111111109</v>
-      </c>
+      <c r="B8" s="4" t="str">
+        <f>'Program targeting'!$C$4</f>
+        <v>Screening - rural</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="str">
@@ -943,11 +945,12 @@
         <v>Screening - rural</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="9">
-        <v>32500</v>
+      <c r="E9" s="5">
+        <f>15.12/0.14</f>
+        <v>107.99999999999999</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -957,34 +960,22 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="str">
-        <f>'Program targeting'!$C$4</f>
-        <v>Screening - rural</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="5"/>
+      <c r="E10" s="10">
+        <f>E7/E9</f>
+        <v>300.92592592592598</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="str">
-        <f>'Program targeting'!$C$4</f>
-        <v>Screening - rural</v>
+        <f>'Program targeting'!$C$5</f>
+        <v>Confirmatory test</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="5">
-        <f>15.12/0.14</f>
-        <v>107.99999999999999</v>
+      <c r="E11" s="9">
+        <v>1900</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -995,55 +986,57 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="str">
-        <f>'Program targeting'!$C$4</f>
-        <v>Screening - rural</v>
+        <f>'Program targeting'!$C$5</f>
+        <v>Confirmatory test</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="str">
-        <f>'Program targeting'!$C$4</f>
-        <v>Screening - rural</v>
+        <f>'Program targeting'!$C$5</f>
+        <v>Confirmatory test</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="5">
+        <v>24</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E14" s="10">
-        <f>E9/E11</f>
-        <v>300.92592592592598</v>
+        <f>E11/E13</f>
+        <v>79.166666666666671</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="str">
-        <f>'Program targeting'!$C$5</f>
-        <v>Confirmatory test</v>
+        <f>'Program targeting'!$C$6</f>
+        <v>Treatment initiation</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="9">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -1054,67 +1047,58 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="str">
-        <f>'Program targeting'!$C$5</f>
-        <v>Confirmatory test</v>
+        <f>'Program targeting'!$C$6</f>
+        <v>Treatment initiation</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="str">
-        <f>'Program targeting'!$C$5</f>
-        <v>Confirmatory test</v>
+        <f>'Program targeting'!$C$6</f>
+        <v>Treatment initiation</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="D17" s="5"/>
       <c r="E17" s="5">
-        <v>24</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="str">
-        <f>'Program targeting'!$C$5</f>
-        <v>Confirmatory test</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="5"/>
+      <c r="E18" s="10">
+        <f>E15/E17</f>
+        <v>55.555555555555557</v>
+      </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="str">
-        <f>'Program targeting'!$C$5</f>
-        <v>Confirmatory test</v>
+        <f>'Program targeting'!$C$7</f>
+        <v>Adherence</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="7"/>
+      <c r="E19" s="9">
+        <v>4000</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="2" t="s">
@@ -1123,22 +1107,33 @@
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E20" s="10">
-        <f>E15/E17</f>
-        <v>79.166666666666671</v>
-      </c>
+      <c r="B20" s="4" t="str">
+        <f>'Program targeting'!$C$7</f>
+        <v>Adherence</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="str">
-        <f>'Program targeting'!$C$6</f>
-        <v>Treatment initiation</v>
+        <f>'Program targeting'!$C$7</f>
+        <v>Adherence</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="9">
-        <v>2500</v>
+      <c r="E21" s="5">
+        <v>45</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -1148,173 +1143,8 @@
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="str">
-        <f>'Program targeting'!$C$6</f>
-        <v>Treatment initiation</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="4" t="str">
-        <f>'Program targeting'!$C$6</f>
-        <v>Treatment initiation</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5">
-        <v>45</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="4" t="str">
-        <f>'Program targeting'!$C$6</f>
-        <v>Treatment initiation</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="4" t="str">
-        <f>'Program targeting'!$C$6</f>
-        <v>Treatment initiation</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E26" s="10">
-        <f>E21/E23</f>
-        <v>55.555555555555557</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="4" t="str">
-        <f>'Program targeting'!$C$7</f>
-        <v>Adherence</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="9">
-        <v>4000</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="4" t="str">
-        <f>'Program targeting'!$C$7</f>
-        <v>Adherence</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="4" t="str">
-        <f>'Program targeting'!$C$7</f>
-        <v>Adherence</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5">
-        <v>45</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="4" t="str">
-        <f>'Program targeting'!$C$7</f>
-        <v>Adherence</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="4" t="str">
-        <f>'Program targeting'!$C$7</f>
-        <v>Adherence</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E32" s="10">
-        <f>E27/E29</f>
+      <c r="E22" s="10">
+        <f>E19/E21</f>
         <v>88.888888888888886</v>
       </c>
     </row>
@@ -1325,53 +1155,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="2.6640625" customWidth="1"/>
+    <col min="3" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="F1" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="90" x14ac:dyDescent="0.2">
+      <c r="H1" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="90" x14ac:dyDescent="0.2">
       <c r="D2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="6" t="str">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="6" t="str">
         <f>'Program targeting'!$C$3</f>
         <v>Screening - urban</v>
       </c>
-      <c r="G2" s="6" t="str">
+      <c r="I2" s="6" t="str">
         <f>'Program targeting'!$C$4</f>
         <v>Screening - rural</v>
       </c>
-      <c r="H2" s="6" t="str">
+      <c r="J2" s="6" t="str">
         <f>'Program targeting'!$C$5</f>
         <v>Confirmatory test</v>
       </c>
-      <c r="I2" s="6" t="str">
+      <c r="K2" s="6" t="str">
         <f>'Program targeting'!$C$6</f>
         <v>Treatment initiation</v>
       </c>
-      <c r="J2" s="6" t="str">
+      <c r="L2" s="6" t="str">
         <f>'Program targeting'!$C$7</f>
         <v>Adherence</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1379,20 +1215,22 @@
       <c r="D3" s="5">
         <v>0</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="11">
-        <v>1</v>
-      </c>
-      <c r="G3" s="11">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="11">
+        <v>1</v>
+      </c>
+      <c r="I3" s="11">
+        <v>1</v>
+      </c>
       <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -1400,20 +1238,22 @@
       <c r="D4" s="5">
         <v>0</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="11">
-        <v>1</v>
-      </c>
-      <c r="G4" s="11">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="11">
+        <v>1</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1</v>
+      </c>
       <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -1421,20 +1261,22 @@
       <c r="D5" s="5">
         <v>0</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="11">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="11">
+        <v>1</v>
+      </c>
+      <c r="I5" s="11">
+        <v>1</v>
+      </c>
       <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
@@ -1442,20 +1284,22 @@
       <c r="D6" s="5">
         <v>0</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="11">
-        <v>1</v>
-      </c>
-      <c r="G6" s="11">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="11">
+        <v>1</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1</v>
+      </c>
       <c r="J6" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>4</v>
@@ -1463,18 +1307,20 @@
       <c r="D8" s="5">
         <v>0</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="11">
-        <v>1</v>
-      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J8" s="11">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>5</v>
@@ -1482,18 +1328,20 @@
       <c r="D9" s="5">
         <v>0</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="11">
-        <v>1</v>
-      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J9" s="11">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>6</v>
@@ -1501,18 +1349,20 @@
       <c r="D10" s="5">
         <v>0</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="11">
-        <v>1</v>
-      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J10" s="11">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
@@ -1520,18 +1370,20 @@
       <c r="D11" s="5">
         <v>0</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="11">
-        <v>1</v>
-      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J11" s="11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -1539,18 +1391,20 @@
       <c r="D13" s="5">
         <v>0</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="11">
-        <v>1</v>
-      </c>
+      <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13" s="11">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>5</v>
@@ -1558,18 +1412,20 @@
       <c r="D14" s="5">
         <v>0</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="11">
-        <v>1</v>
-      </c>
+      <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14" s="11">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>6</v>
@@ -1577,18 +1433,20 @@
       <c r="D15" s="5">
         <v>0</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="11">
-        <v>1</v>
-      </c>
+      <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15" s="11">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>7</v>
@@ -1596,18 +1454,20 @@
       <c r="D16" s="5">
         <v>0</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="11">
-        <v>1</v>
-      </c>
+      <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K16" s="11">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -1615,18 +1475,20 @@
       <c r="D18" s="11">
         <v>0.15</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="G18" s="2"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="11">
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="11">
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>5</v>
@@ -1634,18 +1496,20 @@
       <c r="D19" s="11">
         <v>0.15</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="G19" s="2"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="11">
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="11">
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>6</v>
@@ -1653,18 +1517,20 @@
       <c r="D20" s="11">
         <v>0.15</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="G20" s="2"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="11">
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="11">
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>7</v>
@@ -1672,18 +1538,20 @@
       <c r="D21" s="11">
         <v>0.15</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="G21" s="2"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="11">
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="11">
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>4</v>
@@ -1691,18 +1559,20 @@
       <c r="D23" s="11">
         <v>0.2</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="G23" s="2"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="11">
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="11">
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>5</v>
@@ -1710,18 +1580,20 @@
       <c r="D24" s="11">
         <v>0.2</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="G24" s="2"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="11">
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="11">
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>6</v>
@@ -1729,18 +1601,20 @@
       <c r="D25" s="11">
         <v>0.2</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="11">
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="11">
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>7</v>
@@ -1748,16 +1622,26 @@
       <c r="D26" s="11">
         <v>0.2</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="G26" s="2"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="11">
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="11">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F6 F8:F11 F13:F16 F18:F21 F23:F26" xr:uid="{75AF79E8-C291-7142-BC10-59F67BC42E8E}">
+      <formula1>"Synergistic,best"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6 E8:E11 E13:E16 E18:E21 E23:E26" xr:uid="{7E0AB3C3-236D-6F4C-99D5-782F5D3A789A}">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tests/databooks/progbook_hypertension.xlsx
+++ b/tests/databooks/progbook_hypertension.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A5444F8A-0811-884C-A998-156373980893}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{07398C8C-73E2-AA46-9F9A-187DC329C28C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
@@ -48,21 +48,6 @@
     <t>Urban females</t>
   </si>
   <si>
-    <t>undx</t>
-  </si>
-  <si>
-    <t>scr</t>
-  </si>
-  <si>
-    <t>dx</t>
-  </si>
-  <si>
-    <t>tx</t>
-  </si>
-  <si>
-    <t>con</t>
-  </si>
-  <si>
     <t>Assumption</t>
   </si>
   <si>
@@ -118,6 +103,21 @@
   </si>
   <si>
     <t>Impact interaction</t>
+  </si>
+  <si>
+    <t>Undiagnosed</t>
+  </si>
+  <si>
+    <t>Screened</t>
+  </si>
+  <si>
+    <t>Diagnosed</t>
+  </si>
+  <si>
+    <t>Treated</t>
+  </si>
+  <si>
+    <t>Controlled</t>
   </si>
 </sst>
 </file>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -579,6 +579,7 @@
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="8" max="9" width="16.6640625" customWidth="1"/>
     <col min="10" max="10" width="1.83203125" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -590,7 +591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
@@ -612,19 +613,19 @@
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -632,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="5"/>
@@ -660,10 +661,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="5">
@@ -688,10 +689,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="5">
@@ -720,10 +721,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="5">
@@ -752,10 +753,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="5">
@@ -838,7 +839,7 @@
         <v>2018</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -847,7 +848,7 @@
         <v>Screening - urban</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="9">
@@ -856,7 +857,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I3" s="7"/>
     </row>
@@ -866,14 +867,14 @@
         <v>Screening - urban</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I4" s="5"/>
     </row>
@@ -883,7 +884,7 @@
         <v>Screening - urban</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5">
@@ -893,7 +894,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I5" s="5"/>
     </row>
@@ -909,7 +910,7 @@
         <v>Screening - rural</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="9">
@@ -918,7 +919,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I7" s="5"/>
     </row>
@@ -928,14 +929,14 @@
         <v>Screening - rural</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I8" s="5"/>
     </row>
@@ -945,7 +946,7 @@
         <v>Screening - rural</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5">
@@ -955,7 +956,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I9" s="5"/>
     </row>
@@ -971,7 +972,7 @@
         <v>Confirmatory test</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="9">
@@ -980,7 +981,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -990,14 +991,14 @@
         <v>Confirmatory test</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -1007,7 +1008,7 @@
         <v>Confirmatory test</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="5">
@@ -1016,7 +1017,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7"/>
     </row>
@@ -1032,7 +1033,7 @@
         <v>Treatment initiation</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="9">
@@ -1041,7 +1042,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -1051,14 +1052,14 @@
         <v>Treatment initiation</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="5"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I16" s="7"/>
     </row>
@@ -1068,7 +1069,7 @@
         <v>Treatment initiation</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5">
@@ -1077,7 +1078,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I17" s="5"/>
     </row>
@@ -1093,7 +1094,7 @@
         <v>Adherence</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="9">
@@ -1102,7 +1103,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I19" s="5"/>
     </row>
@@ -1112,14 +1113,14 @@
         <v>Adherence</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="5"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I20" s="7"/>
     </row>
@@ -1129,7 +1130,7 @@
         <v>Adherence</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5">
@@ -1138,7 +1139,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I21" s="5"/>
     </row>
@@ -1157,7 +1158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23:F26"/>
     </sheetView>
   </sheetViews>
@@ -1171,18 +1172,18 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="H1" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="90" x14ac:dyDescent="0.2">
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H2" s="6" t="str">
         <f>'Program targeting'!$C$3</f>
@@ -1207,7 +1208,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1230,7 +1231,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -1253,7 +1254,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -1276,7 +1277,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
@@ -1299,7 +1300,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>4</v>
@@ -1320,7 +1321,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>5</v>
@@ -1341,7 +1342,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>6</v>
@@ -1362,7 +1363,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
@@ -1383,7 +1384,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -1404,7 +1405,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>5</v>
@@ -1425,7 +1426,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>6</v>
@@ -1446,7 +1447,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>7</v>
@@ -1467,7 +1468,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -1488,7 +1489,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>5</v>
@@ -1509,7 +1510,7 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>6</v>
@@ -1530,7 +1531,7 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>7</v>
@@ -1551,7 +1552,7 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>4</v>
@@ -1572,7 +1573,7 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>5</v>
@@ -1593,7 +1594,7 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>6</v>
@@ -1614,7 +1615,7 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>7</v>

--- a/tests/databooks/progbook_hypertension.xlsx
+++ b/tests/databooks/progbook_hypertension.xlsx
@@ -1,27 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{262BC152-00E0-0A4F-825B-F083503D7196}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="21880" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
     <sheet name="Spending data" sheetId="2" r:id="rId2"/>
     <sheet name="Program effects" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -34,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0">
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="0">
+    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -91,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="37">
   <si>
     <t>Targeted to (populations)</t>
   </si>
@@ -199,13 +205,16 @@
   </si>
   <si>
     <t>Treatment failure rate</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,9 +299,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -314,26 +322,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF18C1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
+  <dxfs count="130">
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -341,8 +330,879 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -389,7 +1249,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -421,9 +1281,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,6 +1333,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -630,739 +1526,601 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="6" width="14.83203125" customWidth="1"/>
+    <col min="8" max="12" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="H4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="I5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="J6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="L6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="J7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>14</v>
+      <c r="K7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="2" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="19" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="20" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="0" priority="37" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="37" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="38" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="0" priority="55" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="55" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="56" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="0" priority="73" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="73" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="74" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="4" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="21" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="22" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="0" priority="39" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="39" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="40" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="0" priority="57" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="57" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="58" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="0" priority="75" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="75" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="76" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="6" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="23" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="24" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="0" priority="41" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="41" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="42" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="0" priority="59" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="59" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="60" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="0" priority="77" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="77" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="78" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="7" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="8" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="25" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="26" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="0" priority="43" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="43" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="44" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="0" priority="61" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="61" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="62" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="0" priority="79" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="79" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="80" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="9" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="10" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="0" priority="27" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="27" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="28" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="0" priority="45" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="45" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="46" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="0" priority="63" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="63" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="64" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="0" priority="81" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="81" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="82" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="11" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="12" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="29" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="30" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="0" priority="47" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="47" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="48" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="0" priority="65" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="65" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="66" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="0" priority="83" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="83" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="84" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="13" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="14" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="0" priority="31" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="31" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="32" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="cellIs" dxfId="0" priority="49" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="49" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="50" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="0" priority="67" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="67" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="68" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="0" priority="85" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="85" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="86" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="15" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="16" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="33" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="34" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="0" priority="51" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="51" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="52" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="0" priority="69" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="69" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="70" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="cellIs" dxfId="0" priority="87" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="87" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="88" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="17" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="18" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="0" priority="35" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="35" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="36" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="0" priority="53" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="53" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="54" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="0" priority="71" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="71" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="72" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="cellIs" dxfId="0" priority="89" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="90" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="45">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L7">
+    <cfRule type="cellIs" dxfId="41" priority="89" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="90" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:L7 C3:F7" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1371,607 +2129,607 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5">
         <v>2015</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="5">
         <v>2016</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="5">
         <v>2017</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7">
         <v>21500</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7">
         <v>72</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="5" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8">
-        <v>298.6111111111111</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="6" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7">
+        <v>298.61111111111109</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
         <v>2015</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>2016</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>2017</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="5" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7">
         <v>32500</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="3" t="s">
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="5" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="3" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="5" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7">
         <v>108</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="3" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="5" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8">
-        <v>300.925925925926</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="6" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7">
+        <v>300.92592592592598</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5">
         <v>2015</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>2016</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>2017</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="5" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7">
         <v>1900</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="3" t="s">
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="5" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="3" t="s">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="5" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7">
         <v>24</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="3" t="s">
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="5" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8">
-        <v>79.16666666666667</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="6" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7">
+        <v>79.166666666666671</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5">
         <v>2015</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>2016</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>2017</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="5" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7">
         <v>2500</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="3" t="s">
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="5" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="3" t="s">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="5" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7">
         <v>45</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="3" t="s">
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="5" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="6" t="s">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7">
+        <v>55.555555555555557</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5">
         <v>2015</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>2016</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>2017</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="5" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8">
+      <c r="E26" s="7"/>
+      <c r="F26" s="7">
         <v>4000</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="3" t="s">
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="5" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="3" t="s">
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="5" t="s">
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8">
+      <c r="E28" s="7"/>
+      <c r="F28" s="7">
         <v>45</v>
       </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="3" t="s">
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="5" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8">
-        <v>88.88888888888889</v>
-      </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7">
+        <v>88.888888888888886</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="2" priority="13">
+    <cfRule type="expression" dxfId="39" priority="13">
       <formula>COUNTIF(E10:H10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="14">
+    <cfRule type="expression" dxfId="38" priority="14">
       <formula>AND(COUNTIF(E10:H10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="2" priority="15">
+    <cfRule type="expression" dxfId="37" priority="15">
       <formula>COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="16">
+    <cfRule type="expression" dxfId="36" priority="16">
       <formula>AND(COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="2" priority="17">
+    <cfRule type="expression" dxfId="35" priority="17">
       <formula>COUNTIF(E14:H14,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="18">
+    <cfRule type="expression" dxfId="34" priority="18">
       <formula>AND(COUNTIF(E14:H14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="2" priority="19">
+    <cfRule type="expression" dxfId="33" priority="19">
       <formula>COUNTIF(E15:H15,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="20">
+    <cfRule type="expression" dxfId="32" priority="20">
       <formula>AND(COUNTIF(E15:H15,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="2" priority="21">
+    <cfRule type="expression" dxfId="31" priority="21">
       <formula>COUNTIF(E16:H16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="22">
+    <cfRule type="expression" dxfId="30" priority="22">
       <formula>AND(COUNTIF(E16:H16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="2" priority="23">
+    <cfRule type="expression" dxfId="29" priority="23">
       <formula>COUNTIF(E17:H17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="24">
+    <cfRule type="expression" dxfId="28" priority="24">
       <formula>AND(COUNTIF(E17:H17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="27" priority="1">
       <formula>COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="26" priority="2">
       <formula>AND(COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="2" priority="25">
+    <cfRule type="expression" dxfId="25" priority="25">
       <formula>COUNTIF(E20:H20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="26">
+    <cfRule type="expression" dxfId="24" priority="26">
       <formula>AND(COUNTIF(E20:H20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="2" priority="27">
+    <cfRule type="expression" dxfId="23" priority="27">
       <formula>COUNTIF(E21:H21,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="28">
+    <cfRule type="expression" dxfId="22" priority="28">
       <formula>AND(COUNTIF(E21:H21,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="2" priority="29">
+    <cfRule type="expression" dxfId="21" priority="29">
       <formula>COUNTIF(E22:H22,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="30">
+    <cfRule type="expression" dxfId="20" priority="30">
       <formula>AND(COUNTIF(E22:H22,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="2" priority="31">
+    <cfRule type="expression" dxfId="19" priority="31">
       <formula>COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="32">
+    <cfRule type="expression" dxfId="18" priority="32">
       <formula>AND(COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="2" priority="33">
+    <cfRule type="expression" dxfId="17" priority="33">
       <formula>COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="34">
+    <cfRule type="expression" dxfId="16" priority="34">
       <formula>AND(COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="2" priority="35">
+    <cfRule type="expression" dxfId="15" priority="35">
       <formula>COUNTIF(E27:H27,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="36">
+    <cfRule type="expression" dxfId="14" priority="36">
       <formula>AND(COUNTIF(E27:H27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="2" priority="37">
+    <cfRule type="expression" dxfId="13" priority="37">
       <formula>COUNTIF(E28:H28,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="38">
+    <cfRule type="expression" dxfId="12" priority="38">
       <formula>AND(COUNTIF(E28:H28,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="2" priority="39">
+    <cfRule type="expression" dxfId="11" priority="39">
       <formula>COUNTIF(E29:H29,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="40">
+    <cfRule type="expression" dxfId="10" priority="40">
       <formula>AND(COUNTIF(E29:H29,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>COUNTIF(E3:H3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>AND(COUNTIF(E3:H3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>COUNTIF(E4:H4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>AND(COUNTIF(E4:H4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>AND(COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>COUNTIF(E8:H8,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="10">
+    <cfRule type="expression" dxfId="2" priority="10">
       <formula>AND(COUNTIF(E8:H8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="2" priority="11">
+    <cfRule type="expression" dxfId="1" priority="11">
       <formula>COUNTIF(E9:H9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="12">
+    <cfRule type="expression" dxfId="0" priority="12">
       <formula>AND(COUNTIF(E9:H9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1980,798 +2738,679 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+    <col min="2" max="5" width="14.83203125" customWidth="1"/>
+    <col min="7" max="9" width="20.5" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="3" t="str">
+      <c r="G1" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
         <v>Screening - urban</v>
       </c>
-      <c r="H1" s="3" t="str">
+      <c r="H1" s="2" t="str">
         <f>'Program targeting'!$B$4</f>
         <v>Screening - rural</v>
       </c>
-      <c r="I1" s="3" t="str">
+      <c r="I1" s="2" t="str">
         <f>'Program targeting'!$B$5</f>
         <v>Confirmatory test</v>
       </c>
-      <c r="J1" s="3" t="str">
+      <c r="J1" s="2" t="str">
         <f>'Program targeting'!$B$6</f>
         <v>Treatment initiation</v>
       </c>
-      <c r="K1" s="3" t="str">
+      <c r="K1" s="2" t="str">
         <f>'Program targeting'!$B$7</f>
         <v>Adherence</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Rural males</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="G2" s="8">
+      <c r="E2" s="6"/>
+      <c r="G2" s="7">
         <v>1</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>1</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>'Program targeting'!$D$2</f>
         <v>Rural females</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="G3" s="8">
+      <c r="E3" s="6"/>
+      <c r="G3" s="7">
         <v>1</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>1</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>'Program targeting'!$E$2</f>
         <v>Urban males</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="G4" s="8">
+      <c r="E4" s="6"/>
+      <c r="G4" s="7">
         <v>1</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>'Program targeting'!$F$2</f>
         <v>Urban females</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>0</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="G5" s="8">
+      <c r="E5" s="6"/>
+      <c r="G5" s="7">
         <v>1</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2" t="s">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="3" t="str">
+      <c r="G7" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
         <v>Screening - urban</v>
       </c>
-      <c r="H7" s="3" t="str">
+      <c r="H7" s="2" t="str">
         <f>'Program targeting'!$B$4</f>
         <v>Screening - rural</v>
       </c>
-      <c r="I7" s="3" t="str">
+      <c r="I7" s="2" t="str">
         <f>'Program targeting'!$B$5</f>
         <v>Confirmatory test</v>
       </c>
-      <c r="J7" s="3" t="str">
+      <c r="J7" s="2" t="str">
         <f>'Program targeting'!$B$6</f>
         <v>Treatment initiation</v>
       </c>
-      <c r="K7" s="3" t="str">
+      <c r="K7" s="2" t="str">
         <f>'Program targeting'!$B$7</f>
         <v>Adherence</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Rural males</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>0</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8">
+      <c r="E8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7">
         <v>1</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>'Program targeting'!$D$2</f>
         <v>Rural females</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>0</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8">
+      <c r="E9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7">
         <v>1</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>'Program targeting'!$E$2</f>
         <v>Urban males</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>0</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8">
+      <c r="E10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7">
         <v>1</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>'Program targeting'!$F$2</f>
         <v>Urban females</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>0</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8">
+      <c r="E11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7">
         <v>1</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="2" t="s">
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="3" t="str">
+      <c r="G13" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
         <v>Screening - urban</v>
       </c>
-      <c r="H13" s="3" t="str">
+      <c r="H13" s="2" t="str">
         <f>'Program targeting'!$B$4</f>
         <v>Screening - rural</v>
       </c>
-      <c r="I13" s="3" t="str">
+      <c r="I13" s="2" t="str">
         <f>'Program targeting'!$B$5</f>
         <v>Confirmatory test</v>
       </c>
-      <c r="J13" s="3" t="str">
+      <c r="J13" s="2" t="str">
         <f>'Program targeting'!$B$6</f>
         <v>Treatment initiation</v>
       </c>
-      <c r="K13" s="3" t="str">
+      <c r="K13" s="2" t="str">
         <f>'Program targeting'!$B$7</f>
         <v>Adherence</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Rural males</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>0</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="8">
+      <c r="E14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7">
         <v>1</v>
       </c>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>'Program targeting'!$D$2</f>
         <v>Rural females</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>0</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8">
+      <c r="E15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7">
         <v>1</v>
       </c>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f>'Program targeting'!$E$2</f>
         <v>Urban males</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>0</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8">
+      <c r="E16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7">
         <v>1</v>
       </c>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f>'Program targeting'!$F$2</f>
         <v>Urban females</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>0</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8">
+      <c r="E17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7">
         <v>1</v>
       </c>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="2" t="s">
+      <c r="K17" s="6"/>
+    </row>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="3" t="str">
+      <c r="G19" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
         <v>Screening - urban</v>
       </c>
-      <c r="H19" s="3" t="str">
+      <c r="H19" s="2" t="str">
         <f>'Program targeting'!$B$4</f>
         <v>Screening - rural</v>
       </c>
-      <c r="I19" s="3" t="str">
+      <c r="I19" s="2" t="str">
         <f>'Program targeting'!$B$5</f>
         <v>Confirmatory test</v>
       </c>
-      <c r="J19" s="3" t="str">
+      <c r="J19" s="2" t="str">
         <f>'Program targeting'!$B$6</f>
         <v>Treatment initiation</v>
       </c>
-      <c r="K19" s="3" t="str">
+      <c r="K19" s="2" t="str">
         <f>'Program targeting'!$B$7</f>
         <v>Adherence</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Rural males</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>0.15</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="8">
+      <c r="E20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7">
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>'Program targeting'!$D$2</f>
         <v>Rural females</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>0.15</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="8">
+      <c r="E21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7">
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>'Program targeting'!$E$2</f>
         <v>Urban males</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>0.15</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="8">
+      <c r="E22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="7">
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>'Program targeting'!$F$2</f>
         <v>Urban females</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>0.15</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="8">
+      <c r="E23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="7">
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="3" t="str">
+      <c r="G25" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
         <v>Screening - urban</v>
       </c>
-      <c r="H25" s="3" t="str">
+      <c r="H25" s="2" t="str">
         <f>'Program targeting'!$B$4</f>
         <v>Screening - rural</v>
       </c>
-      <c r="I25" s="3" t="str">
+      <c r="I25" s="2" t="str">
         <f>'Program targeting'!$B$5</f>
         <v>Confirmatory test</v>
       </c>
-      <c r="J25" s="3" t="str">
+      <c r="J25" s="2" t="str">
         <f>'Program targeting'!$B$6</f>
         <v>Treatment initiation</v>
       </c>
-      <c r="K25" s="3" t="str">
+      <c r="K25" s="2" t="str">
         <f>'Program targeting'!$B$7</f>
         <v>Adherence</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Rural males</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>0.2</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="8">
+      <c r="E26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="7">
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>'Program targeting'!$D$2</f>
         <v>Rural females</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>0.2</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="8">
+      <c r="E27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="7">
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>'Program targeting'!$E$2</f>
         <v>Urban males</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>0.2</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="8">
+      <c r="E28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="7">
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>'Program targeting'!$F$2</f>
         <v>Urban females</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>0.2</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="8">
+      <c r="E29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="7">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="40">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:C29 C20:C23 C14:C17 C8:C11 C2:C5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D27">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26:D29 D20:D23 D14:D17 D8:D11 D2:D5" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Synergistic,Best"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/databooks/progbook_hypertension.xlsx
+++ b/tests/databooks/progbook_hypertension.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{262BC152-00E0-0A4F-825B-F083503D7196}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A719F9-AE76-48C5-8786-587D359C3C0F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="21880" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
     <sheet name="Spending data" sheetId="2" r:id="rId2"/>
     <sheet name="Program effects" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -144,6 +144,9 @@
     <t>N</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>Screening - rural</t>
   </si>
   <si>
@@ -205,9 +208,6 @@
   </si>
   <si>
     <t>Treatment failure rate</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -322,7 +322,3007 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="130">
+  <dxfs count="285">
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -561,13 +3561,6 @@
     <dxf>
       <fill>
         <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF18C1FF"/>
-        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -580,7 +3573,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF18C1FF"/>
+          <bgColor rgb="FFFFA500"/>
         </patternFill>
       </fill>
     </dxf>
@@ -594,7 +3587,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF18C1FF"/>
+          <bgColor rgb="FFFFA500"/>
         </patternFill>
       </fill>
     </dxf>
@@ -608,7 +3601,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF18C1FF"/>
+          <bgColor rgb="FFFFA500"/>
         </patternFill>
       </fill>
     </dxf>
@@ -622,7 +3615,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF18C1FF"/>
+          <bgColor rgb="FFFFA500"/>
         </patternFill>
       </fill>
     </dxf>
@@ -636,7 +3629,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF18C1FF"/>
+          <bgColor rgb="FFFFA500"/>
         </patternFill>
       </fill>
     </dxf>
@@ -650,7 +3643,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF18C1FF"/>
+          <bgColor rgb="FFFFA500"/>
         </patternFill>
       </fill>
     </dxf>
@@ -664,7 +3657,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF18C1FF"/>
+          <bgColor rgb="FFFFA500"/>
         </patternFill>
       </fill>
     </dxf>
@@ -678,7 +3671,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF18C1FF"/>
+          <bgColor rgb="FFFFA500"/>
         </patternFill>
       </fill>
     </dxf>
@@ -692,7 +3685,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF18C1FF"/>
+          <bgColor rgb="FFFFA500"/>
         </patternFill>
       </fill>
     </dxf>
@@ -706,7 +3699,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF18C1FF"/>
+          <bgColor rgb="FFFFA500"/>
         </patternFill>
       </fill>
     </dxf>
@@ -720,7 +3713,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF18C1FF"/>
+          <bgColor rgb="FFFFA500"/>
         </patternFill>
       </fill>
     </dxf>
@@ -734,7 +3727,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF18C1FF"/>
+          <bgColor rgb="FFFFA500"/>
         </patternFill>
       </fill>
     </dxf>
@@ -748,7 +3741,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF18C1FF"/>
+          <bgColor rgb="FFFFA500"/>
         </patternFill>
       </fill>
     </dxf>
@@ -762,7 +3755,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF18C1FF"/>
+          <bgColor rgb="FFFFA500"/>
         </patternFill>
       </fill>
     </dxf>
@@ -776,7 +3769,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF18C1FF"/>
+          <bgColor rgb="FFFFA500"/>
         </patternFill>
       </fill>
     </dxf>
@@ -790,7 +3783,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF18C1FF"/>
+          <bgColor rgb="FFFFA500"/>
         </patternFill>
       </fill>
     </dxf>
@@ -804,7 +3797,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF18C1FF"/>
+          <bgColor rgb="FFFFA500"/>
         </patternFill>
       </fill>
     </dxf>
@@ -818,7 +3811,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF18C1FF"/>
+          <bgColor rgb="FFFFA500"/>
         </patternFill>
       </fill>
     </dxf>
@@ -832,7 +3825,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF18C1FF"/>
+          <bgColor rgb="FFFFA500"/>
         </patternFill>
       </fill>
     </dxf>
@@ -846,7 +3839,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF18C1FF"/>
+          <bgColor rgb="FFFFA500"/>
         </patternFill>
       </fill>
     </dxf>
@@ -860,7 +3853,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF18C1FF"/>
+          <bgColor rgb="FFFFA500"/>
         </patternFill>
       </fill>
     </dxf>
@@ -874,315 +3867,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF18C1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF18C1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF18C1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF18C1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF18C1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF18C1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF18C1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF18C1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF18C1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF18C1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF18C1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF18C1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF18C1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF18C1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF18C1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF18C1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF18C1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF18C1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF18C1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF18C1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF18C1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF18C1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF18C1FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1529,18 +4214,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="6" width="14.83203125" customWidth="1"/>
-    <col min="8" max="12" width="14.83203125" customWidth="1"/>
+    <col min="1" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="6" width="14.85546875" customWidth="1"/>
+    <col min="8" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1548,7 +4231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1583,7 +4266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1597,13 +4280,13 @@
         <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>14</v>
@@ -1618,18 +4301,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>14</v>
@@ -1638,7 +4321,7 @@
         <v>14</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>14</v>
@@ -1653,30 +4336,30 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>14</v>
@@ -1688,24 +4371,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>14</v>
@@ -1714,7 +4397,7 @@
         <v>14</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>14</v>
@@ -1723,24 +4406,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>14</v>
@@ -1752,371 +4435,236 @@
         <v>14</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="129" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="1" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="2" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="127" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="10" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="20" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="125" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="19" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="38" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="123" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="28" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="56" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="121" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="37" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="74" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="119" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="2" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="4" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="117" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="11" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="22" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="115" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="20" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="40" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="113" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="29" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="58" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="111" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="38" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="76" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="109" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="3" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="6" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="107" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="12" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="24" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="105" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="21" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="42" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="103" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="30" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="60" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="101" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="39" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="78" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="99" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="4" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="8" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="97" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="13" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="26" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="95" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="22" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="44" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="93" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="31" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="62" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="91" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="40" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="80" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="89" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="5" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="10" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="87" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="14" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="28" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="85" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="23" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="46" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="83" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="32" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="64" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="81" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="41" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="82" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="79" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="6" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="12" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="77" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="15" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="30" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="75" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="24" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="48" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="73" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="33" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="66" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="71" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="42" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="84" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="69" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="7" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="14" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="67" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="16" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="32" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="cellIs" dxfId="65" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="25" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="50" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="63" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="34" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="68" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="61" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="43" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="86" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="59" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="8" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="16" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="cellIs" dxfId="57" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="17" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="34" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="55" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="26" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="52" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="53" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="35" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="70" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="cellIs" dxfId="51" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="44" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="88" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="cellIs" dxfId="49" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="9" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="18" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="47" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="18" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="36" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="45" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="27" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="54" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="43" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="36" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="72" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="cellIs" dxfId="41" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="45" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="90" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -2134,23 +4682,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5">
@@ -2166,14 +4714,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
       <c r="D2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7">
@@ -2182,28 +4730,28 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7">
@@ -2212,14 +4760,14 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7">
@@ -2228,15 +4776,15 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5">
@@ -2252,14 +4800,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
       <c r="D8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7">
@@ -2268,28 +4816,28 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7">
@@ -2298,14 +4846,14 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7">
@@ -2314,15 +4862,15 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5">
@@ -2338,14 +4886,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7">
@@ -2354,28 +4902,28 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7">
@@ -2384,14 +4932,14 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7">
@@ -2400,15 +4948,15 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5">
@@ -2424,14 +4972,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7">
@@ -2440,28 +4988,28 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
       <c r="D22" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7">
@@ -2470,14 +5018,14 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7">
@@ -2486,15 +5034,15 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5">
@@ -2510,14 +5058,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7">
@@ -2526,28 +5074,28 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7">
@@ -2556,14 +5104,14 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7">
@@ -2574,162 +5122,162 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="39" priority="13">
+    <cfRule type="expression" dxfId="239" priority="13">
       <formula>COUNTIF(E10:H10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="14">
+    <cfRule type="expression" dxfId="238" priority="14">
       <formula>AND(COUNTIF(E10:H10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="37" priority="15">
+    <cfRule type="expression" dxfId="237" priority="15">
       <formula>COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="16">
+    <cfRule type="expression" dxfId="236" priority="16">
       <formula>AND(COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="35" priority="17">
+    <cfRule type="expression" dxfId="235" priority="17">
       <formula>COUNTIF(E14:H14,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="18">
+    <cfRule type="expression" dxfId="234" priority="18">
       <formula>AND(COUNTIF(E14:H14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="33" priority="19">
+    <cfRule type="expression" dxfId="233" priority="19">
       <formula>COUNTIF(E15:H15,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="20">
+    <cfRule type="expression" dxfId="232" priority="20">
       <formula>AND(COUNTIF(E15:H15,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="31" priority="21">
+    <cfRule type="expression" dxfId="231" priority="21">
       <formula>COUNTIF(E16:H16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="22">
+    <cfRule type="expression" dxfId="230" priority="22">
       <formula>AND(COUNTIF(E16:H16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="29" priority="23">
+    <cfRule type="expression" dxfId="229" priority="23">
       <formula>COUNTIF(E17:H17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="24">
+    <cfRule type="expression" dxfId="228" priority="24">
       <formula>AND(COUNTIF(E17:H17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="27" priority="1">
+    <cfRule type="expression" dxfId="227" priority="1">
       <formula>COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="2">
+    <cfRule type="expression" dxfId="226" priority="2">
       <formula>AND(COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="25" priority="25">
+    <cfRule type="expression" dxfId="225" priority="25">
       <formula>COUNTIF(E20:H20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="26">
+    <cfRule type="expression" dxfId="224" priority="26">
       <formula>AND(COUNTIF(E20:H20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="23" priority="27">
+    <cfRule type="expression" dxfId="223" priority="27">
       <formula>COUNTIF(E21:H21,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="28">
+    <cfRule type="expression" dxfId="222" priority="28">
       <formula>AND(COUNTIF(E21:H21,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="21" priority="29">
+    <cfRule type="expression" dxfId="221" priority="29">
       <formula>COUNTIF(E22:H22,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="30">
+    <cfRule type="expression" dxfId="220" priority="30">
       <formula>AND(COUNTIF(E22:H22,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="19" priority="31">
+    <cfRule type="expression" dxfId="219" priority="31">
       <formula>COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="32">
+    <cfRule type="expression" dxfId="218" priority="32">
       <formula>AND(COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="17" priority="33">
+    <cfRule type="expression" dxfId="217" priority="33">
       <formula>COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="34">
+    <cfRule type="expression" dxfId="216" priority="34">
       <formula>AND(COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="15" priority="35">
+    <cfRule type="expression" dxfId="215" priority="35">
       <formula>COUNTIF(E27:H27,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="36">
+    <cfRule type="expression" dxfId="214" priority="36">
       <formula>AND(COUNTIF(E27:H27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="13" priority="37">
+    <cfRule type="expression" dxfId="213" priority="37">
       <formula>COUNTIF(E28:H28,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="38">
+    <cfRule type="expression" dxfId="212" priority="38">
       <formula>AND(COUNTIF(E28:H28,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="11" priority="39">
+    <cfRule type="expression" dxfId="211" priority="39">
       <formula>COUNTIF(E29:H29,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="40">
+    <cfRule type="expression" dxfId="210" priority="40">
       <formula>AND(COUNTIF(E29:H29,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="209" priority="3">
       <formula>COUNTIF(E3:H3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="208" priority="4">
       <formula>AND(COUNTIF(E3:H3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="207" priority="5">
       <formula>COUNTIF(E4:H4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="206" priority="6">
       <formula>AND(COUNTIF(E4:H4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="205" priority="7">
       <formula>COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="204" priority="8">
       <formula>AND(COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="3" priority="9">
+    <cfRule type="expression" dxfId="203" priority="9">
       <formula>COUNTIF(E8:H8,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="202" priority="10">
       <formula>AND(COUNTIF(E8:H8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="201" priority="11">
       <formula>COUNTIF(E9:H9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="12">
+    <cfRule type="expression" dxfId="200" priority="12">
       <formula>AND(COUNTIF(E9:H9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2741,32 +5289,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" customWidth="1"/>
-    <col min="2" max="5" width="14.83203125" customWidth="1"/>
-    <col min="7" max="9" width="20.5" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="5" width="14.85546875" customWidth="1"/>
+    <col min="7" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
@@ -2789,7 +5339,7 @@
         <v>Adherence</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Rural males</v>
@@ -2798,15 +5348,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="6"/>
-      <c r="G2" s="7">
-        <v>1</v>
-      </c>
+      <c r="G2" s="7"/>
       <c r="H2" s="7">
         <v>1</v>
       </c>
@@ -2814,7 +5362,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'Program targeting'!$D$2</f>
         <v>Rural females</v>
@@ -2823,15 +5371,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="G3" s="7">
-        <v>1</v>
-      </c>
+      <c r="G3" s="7"/>
       <c r="H3" s="7">
         <v>1</v>
       </c>
@@ -2839,7 +5385,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'Program targeting'!$E$2</f>
         <v>Urban males</v>
@@ -2848,23 +5394,21 @@
         <v>0</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" s="6"/>
       <c r="G4" s="7">
         <v>1</v>
       </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
+      <c r="H4" s="7"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'Program targeting'!$F$2</f>
         <v>Urban females</v>
@@ -2873,37 +5417,35 @@
         <v>0</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" s="6"/>
       <c r="G5" s="7">
         <v>1</v>
       </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
+      <c r="H5" s="7"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
@@ -2926,7 +5468,7 @@
         <v>Adherence</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Rural males</v>
@@ -2935,10 +5477,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="6"/>
       <c r="G8" s="6"/>
@@ -2949,7 +5491,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>'Program targeting'!$D$2</f>
         <v>Rural females</v>
@@ -2958,10 +5500,10 @@
         <v>0</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" s="6"/>
       <c r="G9" s="6"/>
@@ -2972,7 +5514,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'Program targeting'!$E$2</f>
         <v>Urban males</v>
@@ -2981,10 +5523,10 @@
         <v>0</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" s="6"/>
       <c r="G10" s="6"/>
@@ -2995,7 +5537,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'Program targeting'!$F$2</f>
         <v>Urban females</v>
@@ -3004,10 +5546,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" s="6"/>
       <c r="G11" s="6"/>
@@ -3018,21 +5560,21 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G13" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
@@ -3055,7 +5597,7 @@
         <v>Adherence</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Rural males</v>
@@ -3064,10 +5606,10 @@
         <v>0</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" s="6"/>
       <c r="G14" s="6"/>
@@ -3078,7 +5620,7 @@
       </c>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>'Program targeting'!$D$2</f>
         <v>Rural females</v>
@@ -3087,10 +5629,10 @@
         <v>0</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" s="6"/>
       <c r="G15" s="6"/>
@@ -3101,7 +5643,7 @@
       </c>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>'Program targeting'!$E$2</f>
         <v>Urban males</v>
@@ -3110,10 +5652,10 @@
         <v>0</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E16" s="6"/>
       <c r="G16" s="6"/>
@@ -3124,7 +5666,7 @@
       </c>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>'Program targeting'!$F$2</f>
         <v>Urban females</v>
@@ -3133,10 +5675,10 @@
         <v>0</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" s="6"/>
       <c r="G17" s="6"/>
@@ -3147,21 +5689,21 @@
       </c>
       <c r="K17" s="6"/>
     </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G19" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
@@ -3184,7 +5726,7 @@
         <v>Adherence</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Rural males</v>
@@ -3193,10 +5735,10 @@
         <v>0.15</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E20" s="6"/>
       <c r="G20" s="6"/>
@@ -3207,7 +5749,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>'Program targeting'!$D$2</f>
         <v>Rural females</v>
@@ -3216,10 +5758,10 @@
         <v>0.15</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E21" s="6"/>
       <c r="G21" s="6"/>
@@ -3230,7 +5772,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>'Program targeting'!$E$2</f>
         <v>Urban males</v>
@@ -3239,10 +5781,10 @@
         <v>0.15</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E22" s="6"/>
       <c r="G22" s="6"/>
@@ -3253,7 +5795,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>'Program targeting'!$F$2</f>
         <v>Urban females</v>
@@ -3262,10 +5804,10 @@
         <v>0.15</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E23" s="6"/>
       <c r="G23" s="6"/>
@@ -3276,21 +5818,21 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G25" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
@@ -3313,7 +5855,7 @@
         <v>Adherence</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Rural males</v>
@@ -3322,10 +5864,10 @@
         <v>0.2</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E26" s="6"/>
       <c r="G26" s="6"/>
@@ -3336,7 +5878,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>'Program targeting'!$D$2</f>
         <v>Rural females</v>
@@ -3345,10 +5887,10 @@
         <v>0.2</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E27" s="6"/>
       <c r="G27" s="6"/>
@@ -3359,7 +5901,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>'Program targeting'!$E$2</f>
         <v>Urban males</v>
@@ -3368,10 +5910,10 @@
         <v>0.2</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E28" s="6"/>
       <c r="G28" s="6"/>
@@ -3382,7 +5924,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>'Program targeting'!$F$2</f>
         <v>Urban females</v>
@@ -3391,10 +5933,10 @@
         <v>0.2</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E29" s="6"/>
       <c r="G29" s="6"/>
@@ -3416,5 +5958,3911 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="61" id="{00000000-000E-0000-0200-00003D000000}">
+            <xm:f>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G10)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="62" id="{00000000-000E-0000-0200-00003E000000}">
+            <xm:f>'Program targeting'!$E$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="71" id="{00000000-000E-0000-0200-000047000000}">
+            <xm:f>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="72" id="{00000000-000E-0000-0200-000048000000}">
+            <xm:f>'Program targeting'!$F$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="81" id="{00000000-000E-0000-0200-000051000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G14)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="82" id="{00000000-000E-0000-0200-000052000000}">
+            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="91" id="{00000000-000E-0000-0200-00005B000000}">
+            <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G15)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="92" id="{00000000-000E-0000-0200-00005C000000}">
+            <xm:f>'Program targeting'!$D$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="101" id="{00000000-000E-0000-0200-000065000000}">
+            <xm:f>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G16)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="102" id="{00000000-000E-0000-0200-000066000000}">
+            <xm:f>'Program targeting'!$E$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="111" id="{00000000-000E-0000-0200-00006F000000}">
+            <xm:f>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G17)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="112" id="{00000000-000E-0000-0200-000070000000}">
+            <xm:f>'Program targeting'!$F$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00000000-000E-0000-0200-000001000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="2" id="{00000000-000E-0000-0200-000002000000}">
+            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="121" id="{00000000-000E-0000-0200-000079000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G20)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="122" id="{00000000-000E-0000-0200-00007A000000}">
+            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="131" id="{00000000-000E-0000-0200-000083000000}">
+            <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G21)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="132" id="{00000000-000E-0000-0200-000084000000}">
+            <xm:f>'Program targeting'!$D$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="141" id="{00000000-000E-0000-0200-00008D000000}">
+            <xm:f>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G22)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="142" id="{00000000-000E-0000-0200-00008E000000}">
+            <xm:f>'Program targeting'!$E$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="151" id="{00000000-000E-0000-0200-000097000000}">
+            <xm:f>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G23)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="152" id="{00000000-000E-0000-0200-000098000000}">
+            <xm:f>'Program targeting'!$F$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="161" id="{00000000-000E-0000-0200-0000A1000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G26)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="162" id="{00000000-000E-0000-0200-0000A2000000}">
+            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="171" id="{00000000-000E-0000-0200-0000AB000000}">
+            <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G27)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="172" id="{00000000-000E-0000-0200-0000AC000000}">
+            <xm:f>'Program targeting'!$D$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="181" id="{00000000-000E-0000-0200-0000B5000000}">
+            <xm:f>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G28)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="182" id="{00000000-000E-0000-0200-0000B6000000}">
+            <xm:f>'Program targeting'!$E$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="191" id="{00000000-000E-0000-0200-0000BF000000}">
+            <xm:f>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G29)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="192" id="{00000000-000E-0000-0200-0000C0000000}">
+            <xm:f>'Program targeting'!$F$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="11" id="{00000000-000E-0000-0200-00000B000000}">
+            <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G3)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="12" id="{00000000-000E-0000-0200-00000C000000}">
+            <xm:f>'Program targeting'!$D$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="21" id="{00000000-000E-0000-0200-000015000000}">
+            <xm:f>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G4)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="22" id="{00000000-000E-0000-0200-000016000000}">
+            <xm:f>'Program targeting'!$E$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="31" id="{00000000-000E-0000-0200-00001F000000}">
+            <xm:f>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="32" id="{00000000-000E-0000-0200-000020000000}">
+            <xm:f>'Program targeting'!$F$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="41" id="{00000000-000E-0000-0200-000029000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="42" id="{00000000-000E-0000-0200-00002A000000}">
+            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="51" id="{00000000-000E-0000-0200-000033000000}">
+            <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G9)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="52" id="{00000000-000E-0000-0200-000034000000}">
+            <xm:f>'Program targeting'!$D$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="63" id="{00000000-000E-0000-0200-00003F000000}">
+            <xm:f>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H10)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="64" id="{00000000-000E-0000-0200-000040000000}">
+            <xm:f>'Program targeting'!$E$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="73" id="{00000000-000E-0000-0200-000049000000}">
+            <xm:f>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="74" id="{00000000-000E-0000-0200-00004A000000}">
+            <xm:f>'Program targeting'!$F$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="83" id="{00000000-000E-0000-0200-000053000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H14)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="84" id="{00000000-000E-0000-0200-000054000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="93" id="{00000000-000E-0000-0200-00005D000000}">
+            <xm:f>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H15)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="94" id="{00000000-000E-0000-0200-00005E000000}">
+            <xm:f>'Program targeting'!$D$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="103" id="{00000000-000E-0000-0200-000067000000}">
+            <xm:f>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H16)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="104" id="{00000000-000E-0000-0200-000068000000}">
+            <xm:f>'Program targeting'!$E$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="113" id="{00000000-000E-0000-0200-000071000000}">
+            <xm:f>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H17)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="114" id="{00000000-000E-0000-0200-000072000000}">
+            <xm:f>'Program targeting'!$F$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="3" id="{00000000-000E-0000-0200-000003000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="4" id="{00000000-000E-0000-0200-000004000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="123" id="{00000000-000E-0000-0200-00007B000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H20)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="124" id="{00000000-000E-0000-0200-00007C000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="133" id="{00000000-000E-0000-0200-000085000000}">
+            <xm:f>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H21)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="134" id="{00000000-000E-0000-0200-000086000000}">
+            <xm:f>'Program targeting'!$D$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="143" id="{00000000-000E-0000-0200-00008F000000}">
+            <xm:f>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H22)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="144" id="{00000000-000E-0000-0200-000090000000}">
+            <xm:f>'Program targeting'!$E$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="153" id="{00000000-000E-0000-0200-000099000000}">
+            <xm:f>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H23)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="154" id="{00000000-000E-0000-0200-00009A000000}">
+            <xm:f>'Program targeting'!$F$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="163" id="{00000000-000E-0000-0200-0000A3000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H26)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="164" id="{00000000-000E-0000-0200-0000A4000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="173" id="{00000000-000E-0000-0200-0000AD000000}">
+            <xm:f>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H27)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="174" id="{00000000-000E-0000-0200-0000AE000000}">
+            <xm:f>'Program targeting'!$D$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="183" id="{00000000-000E-0000-0200-0000B7000000}">
+            <xm:f>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H28)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="184" id="{00000000-000E-0000-0200-0000B8000000}">
+            <xm:f>'Program targeting'!$E$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="193" id="{00000000-000E-0000-0200-0000C1000000}">
+            <xm:f>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H29)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="194" id="{00000000-000E-0000-0200-0000C2000000}">
+            <xm:f>'Program targeting'!$F$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="13" id="{00000000-000E-0000-0200-00000D000000}">
+            <xm:f>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H3)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="14" id="{00000000-000E-0000-0200-00000E000000}">
+            <xm:f>'Program targeting'!$D$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="23" id="{00000000-000E-0000-0200-000017000000}">
+            <xm:f>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H4)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="24" id="{00000000-000E-0000-0200-000018000000}">
+            <xm:f>'Program targeting'!$E$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="33" id="{00000000-000E-0000-0200-000021000000}">
+            <xm:f>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="34" id="{00000000-000E-0000-0200-000022000000}">
+            <xm:f>'Program targeting'!$F$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="43" id="{00000000-000E-0000-0200-00002B000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="44" id="{00000000-000E-0000-0200-00002C000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="53" id="{00000000-000E-0000-0200-000035000000}">
+            <xm:f>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H9)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="54" id="{00000000-000E-0000-0200-000036000000}">
+            <xm:f>'Program targeting'!$D$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="65" id="{00000000-000E-0000-0200-000041000000}">
+            <xm:f>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I10)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="66" id="{00000000-000E-0000-0200-000042000000}">
+            <xm:f>'Program targeting'!$E$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="75" id="{00000000-000E-0000-0200-00004B000000}">
+            <xm:f>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="76" id="{00000000-000E-0000-0200-00004C000000}">
+            <xm:f>'Program targeting'!$F$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="85" id="{00000000-000E-0000-0200-000055000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I14)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="86" id="{00000000-000E-0000-0200-000056000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="95" id="{00000000-000E-0000-0200-00005F000000}">
+            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I15)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="96" id="{00000000-000E-0000-0200-000060000000}">
+            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="105" id="{00000000-000E-0000-0200-000069000000}">
+            <xm:f>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I16)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="106" id="{00000000-000E-0000-0200-00006A000000}">
+            <xm:f>'Program targeting'!$E$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="115" id="{00000000-000E-0000-0200-000073000000}">
+            <xm:f>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I17)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="116" id="{00000000-000E-0000-0200-000074000000}">
+            <xm:f>'Program targeting'!$F$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="5" id="{00000000-000E-0000-0200-000005000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="6" id="{00000000-000E-0000-0200-000006000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="125" id="{00000000-000E-0000-0200-00007D000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I20)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="126" id="{00000000-000E-0000-0200-00007E000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="135" id="{00000000-000E-0000-0200-000087000000}">
+            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I21)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="136" id="{00000000-000E-0000-0200-000088000000}">
+            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="145" id="{00000000-000E-0000-0200-000091000000}">
+            <xm:f>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I22)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="146" id="{00000000-000E-0000-0200-000092000000}">
+            <xm:f>'Program targeting'!$E$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="155" id="{00000000-000E-0000-0200-00009B000000}">
+            <xm:f>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I23)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="156" id="{00000000-000E-0000-0200-00009C000000}">
+            <xm:f>'Program targeting'!$F$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="165" id="{00000000-000E-0000-0200-0000A5000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I26)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="166" id="{00000000-000E-0000-0200-0000A6000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="175" id="{00000000-000E-0000-0200-0000AF000000}">
+            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I27)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="176" id="{00000000-000E-0000-0200-0000B0000000}">
+            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="185" id="{00000000-000E-0000-0200-0000B9000000}">
+            <xm:f>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I28)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="186" id="{00000000-000E-0000-0200-0000BA000000}">
+            <xm:f>'Program targeting'!$E$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="195" id="{00000000-000E-0000-0200-0000C3000000}">
+            <xm:f>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I29)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="196" id="{00000000-000E-0000-0200-0000C4000000}">
+            <xm:f>'Program targeting'!$F$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="15" id="{00000000-000E-0000-0200-00000F000000}">
+            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I3)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="16" id="{00000000-000E-0000-0200-000010000000}">
+            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="25" id="{00000000-000E-0000-0200-000019000000}">
+            <xm:f>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I4)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="26" id="{00000000-000E-0000-0200-00001A000000}">
+            <xm:f>'Program targeting'!$E$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="35" id="{00000000-000E-0000-0200-000023000000}">
+            <xm:f>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="36" id="{00000000-000E-0000-0200-000024000000}">
+            <xm:f>'Program targeting'!$F$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="45" id="{00000000-000E-0000-0200-00002D000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="46" id="{00000000-000E-0000-0200-00002E000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="55" id="{00000000-000E-0000-0200-000037000000}">
+            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I9)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="56" id="{00000000-000E-0000-0200-000038000000}">
+            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="67" id="{00000000-000E-0000-0200-000043000000}">
+            <xm:f>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J10)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="68" id="{00000000-000E-0000-0200-000044000000}">
+            <xm:f>'Program targeting'!$E$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="77" id="{00000000-000E-0000-0200-00004D000000}">
+            <xm:f>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="78" id="{00000000-000E-0000-0200-00004E000000}">
+            <xm:f>'Program targeting'!$F$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="87" id="{00000000-000E-0000-0200-000057000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J14)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="88" id="{00000000-000E-0000-0200-000058000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="97" id="{00000000-000E-0000-0200-000061000000}">
+            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J15)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="98" id="{00000000-000E-0000-0200-000062000000}">
+            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="107" id="{00000000-000E-0000-0200-00006B000000}">
+            <xm:f>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J16)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="108" id="{00000000-000E-0000-0200-00006C000000}">
+            <xm:f>'Program targeting'!$E$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="117" id="{00000000-000E-0000-0200-000075000000}">
+            <xm:f>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J17)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="118" id="{00000000-000E-0000-0200-000076000000}">
+            <xm:f>'Program targeting'!$F$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="7" id="{00000000-000E-0000-0200-000007000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="8" id="{00000000-000E-0000-0200-000008000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="127" id="{00000000-000E-0000-0200-00007F000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J20)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="128" id="{00000000-000E-0000-0200-000080000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="137" id="{00000000-000E-0000-0200-000089000000}">
+            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J21)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="138" id="{00000000-000E-0000-0200-00008A000000}">
+            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="147" id="{00000000-000E-0000-0200-000093000000}">
+            <xm:f>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J22)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="148" id="{00000000-000E-0000-0200-000094000000}">
+            <xm:f>'Program targeting'!$E$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="157" id="{00000000-000E-0000-0200-00009D000000}">
+            <xm:f>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J23)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="158" id="{00000000-000E-0000-0200-00009E000000}">
+            <xm:f>'Program targeting'!$F$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="167" id="{00000000-000E-0000-0200-0000A7000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J26)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="168" id="{00000000-000E-0000-0200-0000A8000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="177" id="{00000000-000E-0000-0200-0000B1000000}">
+            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J27)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="178" id="{00000000-000E-0000-0200-0000B2000000}">
+            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="187" id="{00000000-000E-0000-0200-0000BB000000}">
+            <xm:f>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J28)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="188" id="{00000000-000E-0000-0200-0000BC000000}">
+            <xm:f>'Program targeting'!$E$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="197" id="{00000000-000E-0000-0200-0000C5000000}">
+            <xm:f>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J29)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="198" id="{00000000-000E-0000-0200-0000C6000000}">
+            <xm:f>'Program targeting'!$F$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="17" id="{00000000-000E-0000-0200-000011000000}">
+            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J3)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="18" id="{00000000-000E-0000-0200-000012000000}">
+            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="27" id="{00000000-000E-0000-0200-00001B000000}">
+            <xm:f>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J4)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="28" id="{00000000-000E-0000-0200-00001C000000}">
+            <xm:f>'Program targeting'!$E$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="37" id="{00000000-000E-0000-0200-000025000000}">
+            <xm:f>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="38" id="{00000000-000E-0000-0200-000026000000}">
+            <xm:f>'Program targeting'!$F$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="47" id="{00000000-000E-0000-0200-00002F000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="48" id="{00000000-000E-0000-0200-000030000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="57" id="{00000000-000E-0000-0200-000039000000}">
+            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J9)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="58" id="{00000000-000E-0000-0200-00003A000000}">
+            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="69" id="{00000000-000E-0000-0200-000045000000}">
+            <xm:f>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K10)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="70" id="{00000000-000E-0000-0200-000046000000}">
+            <xm:f>'Program targeting'!$E$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="79" id="{00000000-000E-0000-0200-00004F000000}">
+            <xm:f>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="80" id="{00000000-000E-0000-0200-000050000000}">
+            <xm:f>'Program targeting'!$F$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="89" id="{00000000-000E-0000-0200-000059000000}">
+            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K14)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="90" id="{00000000-000E-0000-0200-00005A000000}">
+            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="99" id="{00000000-000E-0000-0200-000063000000}">
+            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K15)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="100" id="{00000000-000E-0000-0200-000064000000}">
+            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="109" id="{00000000-000E-0000-0200-00006D000000}">
+            <xm:f>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K16)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="110" id="{00000000-000E-0000-0200-00006E000000}">
+            <xm:f>'Program targeting'!$E$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="119" id="{00000000-000E-0000-0200-000077000000}">
+            <xm:f>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K17)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="120" id="{00000000-000E-0000-0200-000078000000}">
+            <xm:f>'Program targeting'!$F$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="9" id="{00000000-000E-0000-0200-000009000000}">
+            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="10" id="{00000000-000E-0000-0200-00000A000000}">
+            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="129" id="{00000000-000E-0000-0200-000081000000}">
+            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K20)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="130" id="{00000000-000E-0000-0200-000082000000}">
+            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="139" id="{00000000-000E-0000-0200-00008B000000}">
+            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K21)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="140" id="{00000000-000E-0000-0200-00008C000000}">
+            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="149" id="{00000000-000E-0000-0200-000095000000}">
+            <xm:f>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K22)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="150" id="{00000000-000E-0000-0200-000096000000}">
+            <xm:f>'Program targeting'!$E$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="159" id="{00000000-000E-0000-0200-00009F000000}">
+            <xm:f>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K23)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="160" id="{00000000-000E-0000-0200-0000A0000000}">
+            <xm:f>'Program targeting'!$F$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="169" id="{00000000-000E-0000-0200-0000A9000000}">
+            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K26)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="170" id="{00000000-000E-0000-0200-0000AA000000}">
+            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="179" id="{00000000-000E-0000-0200-0000B3000000}">
+            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K27)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="180" id="{00000000-000E-0000-0200-0000B4000000}">
+            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="189" id="{00000000-000E-0000-0200-0000BD000000}">
+            <xm:f>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K28)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="190" id="{00000000-000E-0000-0200-0000BE000000}">
+            <xm:f>'Program targeting'!$E$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="199" id="{00000000-000E-0000-0200-0000C7000000}">
+            <xm:f>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K29)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="200" id="{00000000-000E-0000-0200-0000C8000000}">
+            <xm:f>'Program targeting'!$F$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="19" id="{00000000-000E-0000-0200-000013000000}">
+            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K3)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="20" id="{00000000-000E-0000-0200-000014000000}">
+            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="29" id="{00000000-000E-0000-0200-00001D000000}">
+            <xm:f>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K4)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="30" id="{00000000-000E-0000-0200-00001E000000}">
+            <xm:f>'Program targeting'!$E$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="39" id="{00000000-000E-0000-0200-000027000000}">
+            <xm:f>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="40" id="{00000000-000E-0000-0200-000028000000}">
+            <xm:f>'Program targeting'!$F$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="49" id="{00000000-000E-0000-0200-000031000000}">
+            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="50" id="{00000000-000E-0000-0200-000032000000}">
+            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="59" id="{00000000-000E-0000-0200-00003B000000}">
+            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K9)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="60" id="{00000000-000E-0000-0200-00003C000000}">
+            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K9</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/tests/databooks/progbook_hypertension.xlsx
+++ b/tests/databooks/progbook_hypertension.xlsx
@@ -15,81 +15,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>In this column, enter the baseline value for "Screening rate" if none of the programs reach this parameter (e.g., if the coverage is 0)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>In this column, enter the baseline value for "Diagnosis rate" if none of the programs reach this parameter (e.g., if the coverage is 0)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>In this column, enter the baseline value for "Initiation rate" if none of the programs reach this parameter (e.g., if the coverage is 0)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>In this column, enter the baseline value for "Loss-to-follow-up rate" if none of the programs reach this parameter (e.g., if the coverage is 0)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B25" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>In this column, enter the baseline value for "Treatment failure rate" if none of the programs reach this parameter (e.g., if the coverage is 0)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="38">
   <si>
@@ -165,16 +90,16 @@
     <t>OR</t>
   </si>
   <si>
-    <t>Capacity constraints</t>
-  </si>
-  <si>
     <t>Unit cost</t>
   </si>
   <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Saturation</t>
+  </si>
+  <si>
     <t>Coverage</t>
-  </si>
-  <si>
-    <t>Demand constraint</t>
   </si>
   <si>
     <t>Screening rate</t>
@@ -211,19 +136,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -243,7 +162,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF18C1FF"/>
+        <fgColor rgb="FF98E0FA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,22 +215,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -673,45 +590,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -722,31 +639,31 @@
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -757,31 +674,31 @@
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -792,31 +709,31 @@
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -827,31 +744,31 @@
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -862,31 +779,31 @@
       <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1272,504 +1189,504 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2">
         <v>2015</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="2">
         <v>2016</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="2">
         <v>2017</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="2">
         <v>2018</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6">
         <v>21500</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6">
+        <v>72</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8">
-        <v>72</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="5" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
         <v>298.6111111111111</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="3" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2017</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
+        <v>32500</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
+        <v>108</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="5" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
+        <v>300.925925925926</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2">
         <v>2015</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F15" s="2">
         <v>2016</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G15" s="2">
         <v>2017</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H15" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="3" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="5" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8">
-        <v>32500</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="3" t="s">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6">
+        <v>1900</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="5" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="3" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6">
+        <v>24</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="5" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8">
-        <v>108</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="3" t="s">
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="5" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8">
-        <v>300.925925925926</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="3" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="5" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="E20" s="6"/>
+      <c r="F20" s="6">
+        <v>79.16666666666667</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2">
         <v>2015</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F22" s="2">
         <v>2016</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G22" s="2">
         <v>2017</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H22" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="3" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="5" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8">
-        <v>1900</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="3" t="s">
+      <c r="E23" s="6"/>
+      <c r="F23" s="6">
+        <v>2500</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="5" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="3" t="s">
+      <c r="E24" s="6"/>
+      <c r="F24" s="6">
+        <v>45</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="5" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G29" s="2">
+        <v>2017</v>
+      </c>
+      <c r="H29" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6">
+        <v>4000</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="3" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6">
+        <v>45</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="5" t="s">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8">
-        <v>79.16666666666667</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="3" t="s">
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="5" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6">
-        <v>2015</v>
-      </c>
-      <c r="F22" s="6">
-        <v>2016</v>
-      </c>
-      <c r="G22" s="6">
-        <v>2017</v>
-      </c>
-      <c r="H22" s="6">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8">
-        <v>45</v>
-      </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6">
-        <v>2015</v>
-      </c>
-      <c r="F29" s="6">
-        <v>2016</v>
-      </c>
-      <c r="G29" s="6">
-        <v>2017</v>
-      </c>
-      <c r="H29" s="6">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8">
-        <v>4000</v>
-      </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8">
-        <v>45</v>
-      </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8">
+      <c r="E34" s="6"/>
+      <c r="F34" s="6">
         <v>88.88888888888889</v>
       </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
@@ -1997,38 +1914,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="3" t="str">
+      <c r="G1" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
         <v>Screening - urban</v>
       </c>
-      <c r="H1" s="3" t="str">
+      <c r="H1" s="2" t="str">
         <f>'Program targeting'!$B$4</f>
         <v>Screening - rural</v>
       </c>
-      <c r="I1" s="3" t="str">
+      <c r="I1" s="2" t="str">
         <f>'Program targeting'!$B$5</f>
         <v>Confirmatory test</v>
       </c>
-      <c r="J1" s="3" t="str">
+      <c r="J1" s="2" t="str">
         <f>'Program targeting'!$B$6</f>
         <v>Treatment initiation</v>
       </c>
-      <c r="K1" s="3" t="str">
+      <c r="K1" s="2" t="str">
         <f>'Program targeting'!$B$7</f>
         <v>Adherence</v>
       </c>
@@ -2038,126 +1955,126 @@
         <f>'Program targeting'!$C$2</f>
         <v>Rural males</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8">
+      <c r="E2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6">
         <v>1</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="str">
         <f>'Program targeting'!$D$2</f>
         <v>Rural females</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8">
+      <c r="E3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6">
         <v>1</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="str">
         <f>'Program targeting'!$E$2</f>
         <v>Urban males</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="G4" s="8">
+      <c r="E4" s="5"/>
+      <c r="G4" s="6">
         <v>1</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="str">
         <f>'Program targeting'!$F$2</f>
         <v>Urban females</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>0</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="G5" s="8">
+      <c r="E5" s="5"/>
+      <c r="G5" s="6">
         <v>1</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="3" t="str">
+      <c r="G7" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
         <v>Screening - urban</v>
       </c>
-      <c r="H7" s="3" t="str">
+      <c r="H7" s="2" t="str">
         <f>'Program targeting'!$B$4</f>
         <v>Screening - rural</v>
       </c>
-      <c r="I7" s="3" t="str">
+      <c r="I7" s="2" t="str">
         <f>'Program targeting'!$B$5</f>
         <v>Confirmatory test</v>
       </c>
-      <c r="J7" s="3" t="str">
+      <c r="J7" s="2" t="str">
         <f>'Program targeting'!$B$6</f>
         <v>Treatment initiation</v>
       </c>
-      <c r="K7" s="3" t="str">
+      <c r="K7" s="2" t="str">
         <f>'Program targeting'!$B$7</f>
         <v>Adherence</v>
       </c>
@@ -2167,126 +2084,126 @@
         <f>'Program targeting'!$C$2</f>
         <v>Rural males</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>0</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8">
+      <c r="E8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6">
         <v>1</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="str">
         <f>'Program targeting'!$D$2</f>
         <v>Rural females</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>0</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8">
+      <c r="E9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6">
         <v>1</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="str">
         <f>'Program targeting'!$E$2</f>
         <v>Urban males</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <v>0</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8">
+      <c r="E10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6">
         <v>1</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="str">
         <f>'Program targeting'!$F$2</f>
         <v>Urban females</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="6">
         <v>0</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8">
+      <c r="E11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6">
         <v>1</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="3" t="str">
+      <c r="G13" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
         <v>Screening - urban</v>
       </c>
-      <c r="H13" s="3" t="str">
+      <c r="H13" s="2" t="str">
         <f>'Program targeting'!$B$4</f>
         <v>Screening - rural</v>
       </c>
-      <c r="I13" s="3" t="str">
+      <c r="I13" s="2" t="str">
         <f>'Program targeting'!$B$5</f>
         <v>Confirmatory test</v>
       </c>
-      <c r="J13" s="3" t="str">
+      <c r="J13" s="2" t="str">
         <f>'Program targeting'!$B$6</f>
         <v>Treatment initiation</v>
       </c>
-      <c r="K13" s="3" t="str">
+      <c r="K13" s="2" t="str">
         <f>'Program targeting'!$B$7</f>
         <v>Adherence</v>
       </c>
@@ -2296,126 +2213,126 @@
         <f>'Program targeting'!$C$2</f>
         <v>Rural males</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="6">
         <v>0</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="8">
+      <c r="E14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6">
         <v>1</v>
       </c>
-      <c r="K14" s="7"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="str">
         <f>'Program targeting'!$D$2</f>
         <v>Rural females</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="6">
         <v>0</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8">
+      <c r="E15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="6">
         <v>1</v>
       </c>
-      <c r="K15" s="7"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="str">
         <f>'Program targeting'!$E$2</f>
         <v>Urban males</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="6">
         <v>0</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8">
+      <c r="E16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6">
         <v>1</v>
       </c>
-      <c r="K16" s="7"/>
+      <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="str">
         <f>'Program targeting'!$F$2</f>
         <v>Urban females</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="6">
         <v>0</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8">
+      <c r="E17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6">
         <v>1</v>
       </c>
-      <c r="K17" s="7"/>
+      <c r="K17" s="5"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="3" t="str">
+      <c r="G19" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
         <v>Screening - urban</v>
       </c>
-      <c r="H19" s="3" t="str">
+      <c r="H19" s="2" t="str">
         <f>'Program targeting'!$B$4</f>
         <v>Screening - rural</v>
       </c>
-      <c r="I19" s="3" t="str">
+      <c r="I19" s="2" t="str">
         <f>'Program targeting'!$B$5</f>
         <v>Confirmatory test</v>
       </c>
-      <c r="J19" s="3" t="str">
+      <c r="J19" s="2" t="str">
         <f>'Program targeting'!$B$6</f>
         <v>Treatment initiation</v>
       </c>
-      <c r="K19" s="3" t="str">
+      <c r="K19" s="2" t="str">
         <f>'Program targeting'!$B$7</f>
         <v>Adherence</v>
       </c>
@@ -2425,21 +2342,21 @@
         <f>'Program targeting'!$C$2</f>
         <v>Rural males</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="6">
         <v>0.15</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="8">
+      <c r="E20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="6">
         <v>0.05</v>
       </c>
     </row>
@@ -2448,21 +2365,21 @@
         <f>'Program targeting'!$D$2</f>
         <v>Rural females</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="6">
         <v>0.15</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="8">
+      <c r="E21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="6">
         <v>0.05</v>
       </c>
     </row>
@@ -2471,21 +2388,21 @@
         <f>'Program targeting'!$E$2</f>
         <v>Urban males</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="6">
         <v>0.15</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="8">
+      <c r="E22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="6">
         <v>0.05</v>
       </c>
     </row>
@@ -2494,57 +2411,57 @@
         <f>'Program targeting'!$F$2</f>
         <v>Urban females</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="6">
         <v>0.15</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="8">
+      <c r="E23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="6">
         <v>0.05</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="3" t="str">
+      <c r="G25" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
         <v>Screening - urban</v>
       </c>
-      <c r="H25" s="3" t="str">
+      <c r="H25" s="2" t="str">
         <f>'Program targeting'!$B$4</f>
         <v>Screening - rural</v>
       </c>
-      <c r="I25" s="3" t="str">
+      <c r="I25" s="2" t="str">
         <f>'Program targeting'!$B$5</f>
         <v>Confirmatory test</v>
       </c>
-      <c r="J25" s="3" t="str">
+      <c r="J25" s="2" t="str">
         <f>'Program targeting'!$B$6</f>
         <v>Treatment initiation</v>
       </c>
-      <c r="K25" s="3" t="str">
+      <c r="K25" s="2" t="str">
         <f>'Program targeting'!$B$7</f>
         <v>Adherence</v>
       </c>
@@ -2554,21 +2471,21 @@
         <f>'Program targeting'!$C$2</f>
         <v>Rural males</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="6">
         <v>0.2</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="8">
+      <c r="E26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="6">
         <v>0.1</v>
       </c>
     </row>
@@ -2577,21 +2494,21 @@
         <f>'Program targeting'!$D$2</f>
         <v>Rural females</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="6">
         <v>0.2</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="8">
+      <c r="E27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="6">
         <v>0.1</v>
       </c>
     </row>
@@ -2600,21 +2517,21 @@
         <f>'Program targeting'!$E$2</f>
         <v>Urban males</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="6">
         <v>0.2</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="8">
+      <c r="E28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="6">
         <v>0.1</v>
       </c>
     </row>
@@ -2623,21 +2540,21 @@
         <f>'Program targeting'!$F$2</f>
         <v>Urban females</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="6">
         <v>0.2</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="8">
+      <c r="E29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="6">
         <v>0.1</v>
       </c>
     </row>
@@ -3565,6 +3482,5 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/databooks/progbook_hypertension.xlsx
+++ b/tests/databooks/progbook_hypertension.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="43">
   <si>
     <t>Targeted to (populations)</t>
   </si>
@@ -78,13 +78,19 @@
     <t>Adherence</t>
   </si>
   <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>Uncertainty</t>
   </si>
   <si>
     <t>Assumption</t>
   </si>
   <si>
-    <t>Total spend</t>
+    <t>Annual spend</t>
+  </si>
+  <si>
+    <t>$/year</t>
   </si>
   <si>
     <t>OR</t>
@@ -93,12 +99,21 @@
     <t>Unit cost</t>
   </si>
   <si>
+    <t>$/person</t>
+  </si>
+  <si>
     <t>Capacity</t>
   </si>
   <si>
+    <t>people/year</t>
+  </si>
+  <si>
     <t>Saturation</t>
   </si>
   <si>
+    <t>N.A.</t>
+  </si>
+  <si>
     <t>Coverage</t>
   </si>
   <si>
@@ -114,7 +129,7 @@
     <t>Impact interaction</t>
   </si>
   <si>
-    <t>additive</t>
+    <t>Additive</t>
   </si>
   <si>
     <t>best</t>
@@ -1176,7 +1191,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1184,13 +1199,15 @@
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>13</v>
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="str">
+        <f>'Program targeting'!$B$3</f>
+        <v>Screening - urban</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>20</v>
@@ -1198,99 +1215,118 @@
       <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2">
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2">
         <v>2015</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>2016</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>2017</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6">
         <v>21500</v>
       </c>
-      <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6">
         <v>72</v>
       </c>
-      <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6">
         <v>298.6111111111111</v>
       </c>
-      <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="str">
+        <f>'Program targeting'!$B$4</f>
+        <v>Screening - rural</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>20</v>
@@ -1298,99 +1334,118 @@
       <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2">
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
         <v>2015</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>2016</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>2017</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6">
         <v>32500</v>
       </c>
-      <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
         <v>108</v>
       </c>
-      <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6">
         <v>300.925925925926</v>
       </c>
-      <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2" t="str">
+        <f>'Program targeting'!$B$5</f>
+        <v>Confirmatory test</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>20</v>
@@ -1398,99 +1453,118 @@
       <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2">
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
         <v>2015</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <v>2016</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>2017</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6">
         <v>1900</v>
       </c>
-      <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6">
         <v>24</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6">
-        <v>24</v>
-      </c>
-      <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6">
         <v>79.16666666666667</v>
       </c>
-      <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="2" t="s">
-        <v>18</v>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2" t="str">
+        <f>'Program targeting'!$B$6</f>
+        <v>Treatment initiation</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>20</v>
@@ -1498,99 +1572,118 @@
       <c r="C22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2">
+      <c r="D22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
         <v>2015</v>
       </c>
-      <c r="F22" s="2">
+      <c r="G22" s="2">
         <v>2016</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <v>2017</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6">
         <v>2500</v>
       </c>
-      <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6">
         <v>45</v>
       </c>
-      <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6">
         <v>55.55555555555556</v>
       </c>
-      <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="2" t="s">
-        <v>19</v>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="2" t="str">
+        <f>'Program targeting'!$B$7</f>
+        <v>Adherence</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>20</v>
@@ -1598,297 +1691,347 @@
       <c r="C29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2">
+      <c r="D29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2">
         <v>2015</v>
       </c>
-      <c r="F29" s="2">
+      <c r="G29" s="2">
         <v>2016</v>
       </c>
-      <c r="G29" s="2">
+      <c r="H29" s="2">
         <v>2017</v>
       </c>
-      <c r="H29" s="2">
+      <c r="I29" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6">
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6">
         <v>4000</v>
       </c>
-      <c r="G30" s="6"/>
       <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6">
         <v>45</v>
       </c>
-      <c r="G31" s="6"/>
       <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6">
         <v>88.88888888888889</v>
       </c>
-      <c r="G34" s="6"/>
       <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
     <cfRule type="expression" dxfId="1" priority="13">
-      <formula>COUNTIF(E10:H10,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F10:I10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="14">
-      <formula>AND(COUNTIF(E10:H10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
+      <formula>AND(COUNTIF(F10:I10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
     <cfRule type="expression" dxfId="1" priority="15">
-      <formula>COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F11:I11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="16">
-      <formula>AND(COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
+      <formula>AND(COUNTIF(F11:I11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
     <cfRule type="expression" dxfId="1" priority="17">
-      <formula>COUNTIF(E12:H12,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F12:I12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="18">
-      <formula>AND(COUNTIF(E12:H12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C12)))</formula>
+      <formula>AND(COUNTIF(F12:I12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
     <cfRule type="expression" dxfId="1" priority="19">
-      <formula>COUNTIF(E13:H13,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F13:I13,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="20">
-      <formula>AND(COUNTIF(E13:H13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C13)))</formula>
+      <formula>AND(COUNTIF(F13:I13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
     <cfRule type="expression" dxfId="1" priority="21">
-      <formula>COUNTIF(E16:H16,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F16:I16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="22">
-      <formula>AND(COUNTIF(E16:H16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C16)))</formula>
+      <formula>AND(COUNTIF(F16:I16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
     <cfRule type="expression" dxfId="1" priority="23">
-      <formula>COUNTIF(E17:H17,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F17:I17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="24">
-      <formula>AND(COUNTIF(E17:H17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
+      <formula>AND(COUNTIF(F17:I17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
     <cfRule type="expression" dxfId="1" priority="25">
-      <formula>COUNTIF(E18:H18,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F18:I18,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="26">
-      <formula>AND(COUNTIF(E18:H18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
+      <formula>AND(COUNTIF(F18:I18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
     <cfRule type="expression" dxfId="1" priority="27">
-      <formula>COUNTIF(E19:H19,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F19:I19,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="28">
-      <formula>AND(COUNTIF(E19:H19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
+      <formula>AND(COUNTIF(F19:I19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F2:I2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="2">
-      <formula>AND(COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
+      <formula>AND(COUNTIF(F2:I2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
     <cfRule type="expression" dxfId="1" priority="29">
-      <formula>COUNTIF(E20:H20,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F20:I20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="30">
-      <formula>AND(COUNTIF(E20:H20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
+      <formula>AND(COUNTIF(F20:I20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
     <cfRule type="expression" dxfId="1" priority="31">
-      <formula>COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F23:I23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="32">
-      <formula>AND(COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
+      <formula>AND(COUNTIF(F23:I23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
     <cfRule type="expression" dxfId="1" priority="33">
-      <formula>COUNTIF(E24:H24,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F24:I24,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="34">
-      <formula>AND(COUNTIF(E24:H24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C24)))</formula>
+      <formula>AND(COUNTIF(F24:I24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
     <cfRule type="expression" dxfId="1" priority="35">
-      <formula>COUNTIF(E25:H25,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F25:I25,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="36">
-      <formula>AND(COUNTIF(E25:H25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C25)))</formula>
+      <formula>AND(COUNTIF(F25:I25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
     <cfRule type="expression" dxfId="1" priority="37">
-      <formula>COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F26:I26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="38">
-      <formula>AND(COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
+      <formula>AND(COUNTIF(F26:I26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
     <cfRule type="expression" dxfId="1" priority="39">
-      <formula>COUNTIF(E27:H27,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F27:I27,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="40">
-      <formula>AND(COUNTIF(E27:H27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
+      <formula>AND(COUNTIF(F27:I27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>COUNTIF(E3:H3,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F3:I3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>AND(COUNTIF(E3:H3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
+      <formula>AND(COUNTIF(F3:I3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
     <cfRule type="expression" dxfId="1" priority="41">
-      <formula>COUNTIF(E30:H30,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F30:I30,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="42">
-      <formula>AND(COUNTIF(E30:H30,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C30)))</formula>
+      <formula>AND(COUNTIF(F30:I30,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
     <cfRule type="expression" dxfId="1" priority="43">
-      <formula>COUNTIF(E31:H31,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F31:I31,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="44">
-      <formula>AND(COUNTIF(E31:H31,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C31)))</formula>
+      <formula>AND(COUNTIF(F31:I31,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
     <cfRule type="expression" dxfId="1" priority="45">
-      <formula>COUNTIF(E32:H32,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F32:I32,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="46">
-      <formula>AND(COUNTIF(E32:H32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C32)))</formula>
+      <formula>AND(COUNTIF(F32:I32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
     <cfRule type="expression" dxfId="1" priority="47">
-      <formula>COUNTIF(E33:H33,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F33:I33,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="48">
-      <formula>AND(COUNTIF(E33:H33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C33)))</formula>
+      <formula>AND(COUNTIF(F33:I33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
     <cfRule type="expression" dxfId="1" priority="49">
-      <formula>COUNTIF(E34:H34,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F34:I34,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="50">
-      <formula>AND(COUNTIF(E34:H34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C34)))</formula>
+      <formula>AND(COUNTIF(F34:I34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>COUNTIF(E4:H4,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F4:I4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="6">
-      <formula>AND(COUNTIF(E4:H4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
+      <formula>AND(COUNTIF(F4:I4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F5:I5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="8">
-      <formula>AND(COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
+      <formula>AND(COUNTIF(F5:I5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
     <cfRule type="expression" dxfId="1" priority="9">
-      <formula>COUNTIF(E6:H6,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F6:I6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="10">
-      <formula>AND(COUNTIF(E6:H6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
+      <formula>AND(COUNTIF(F6:I6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
     <cfRule type="expression" dxfId="1" priority="11">
-      <formula>COUNTIF(E9:H9,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F9:I9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="12">
-      <formula>AND(COUNTIF(E9:H9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
+      <formula>AND(COUNTIF(F9:I9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+      <formula1>"$/person,$/person/year"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+      <formula1>"people/year,people"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
+      <formula1>"$/person,$/person/year"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
+      <formula1>"people/year,people"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+      <formula1>"$/person,$/person/year"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
+      <formula1>"people/year,people"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+      <formula1>"$/person,$/person/year"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+      <formula1>"people/year,people"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+      <formula1>"$/person,$/person/year"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
+      <formula1>"people/year,people"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1915,19 +2058,19 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
@@ -1959,10 +2102,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E2" s="5"/>
       <c r="G2" s="5"/>
@@ -1982,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E3" s="5"/>
       <c r="G3" s="5"/>
@@ -2005,10 +2148,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E4" s="5"/>
       <c r="G4" s="6">
@@ -2028,10 +2171,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E5" s="5"/>
       <c r="G5" s="6">
@@ -2044,19 +2187,19 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
@@ -2088,10 +2231,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E8" s="5"/>
       <c r="G8" s="5"/>
@@ -2111,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E9" s="5"/>
       <c r="G9" s="5"/>
@@ -2134,10 +2277,10 @@
         <v>0</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E10" s="5"/>
       <c r="G10" s="5"/>
@@ -2157,10 +2300,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E11" s="5"/>
       <c r="G11" s="5"/>
@@ -2173,19 +2316,19 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G13" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
@@ -2217,10 +2360,10 @@
         <v>0</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E14" s="5"/>
       <c r="G14" s="5"/>
@@ -2240,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E15" s="5"/>
       <c r="G15" s="5"/>
@@ -2263,10 +2406,10 @@
         <v>0</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E16" s="5"/>
       <c r="G16" s="5"/>
@@ -2286,10 +2429,10 @@
         <v>0</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E17" s="5"/>
       <c r="G17" s="5"/>
@@ -2302,19 +2445,19 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="E19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G19" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
@@ -2346,10 +2489,10 @@
         <v>0.15</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E20" s="5"/>
       <c r="G20" s="5"/>
@@ -2369,10 +2512,10 @@
         <v>0.15</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E21" s="5"/>
       <c r="G21" s="5"/>
@@ -2392,10 +2535,10 @@
         <v>0.15</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E22" s="5"/>
       <c r="G22" s="5"/>
@@ -2415,10 +2558,10 @@
         <v>0.15</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E23" s="5"/>
       <c r="G23" s="5"/>
@@ -2431,19 +2574,19 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G25" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
@@ -2475,10 +2618,10 @@
         <v>0.2</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E26" s="5"/>
       <c r="G26" s="5"/>
@@ -2498,10 +2641,10 @@
         <v>0.2</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E27" s="5"/>
       <c r="G27" s="5"/>
@@ -2521,10 +2664,10 @@
         <v>0.2</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E28" s="5"/>
       <c r="G28" s="5"/>
@@ -2544,10 +2687,10 @@
         <v>0.2</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E29" s="5"/>
       <c r="G29" s="5"/>

--- a/tests/databooks/progbook_hypertension.xlsx
+++ b/tests/databooks/progbook_hypertension.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="42">
   <si>
     <t>Targeted to (populations)</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>Additive</t>
-  </si>
-  <si>
-    <t>best</t>
   </si>
   <si>
     <t>Diagnosis rate</t>
@@ -2104,9 +2101,7 @@
       <c r="C2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="6">
@@ -2127,9 +2122,7 @@
       <c r="C3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="6">
@@ -2150,9 +2143,7 @@
       <c r="C4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="G4" s="6">
         <v>1</v>
@@ -2173,9 +2164,7 @@
       <c r="C5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="G5" s="6">
         <v>1</v>
@@ -2187,7 +2176,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>34</v>
@@ -2233,9 +2222,7 @@
       <c r="C8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -2256,9 +2243,7 @@
       <c r="C9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -2279,9 +2264,7 @@
       <c r="C10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -2302,9 +2285,7 @@
       <c r="C11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -2316,7 +2297,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>34</v>
@@ -2362,9 +2343,7 @@
       <c r="C14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -2385,9 +2364,7 @@
       <c r="C15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -2408,9 +2385,7 @@
       <c r="C16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -2431,9 +2406,7 @@
       <c r="C17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -2445,7 +2418,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>34</v>
@@ -2491,9 +2464,7 @@
       <c r="C20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -2514,9 +2485,7 @@
       <c r="C21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -2537,9 +2506,7 @@
       <c r="C22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -2560,9 +2527,7 @@
       <c r="C23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -2574,7 +2539,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>34</v>
@@ -2620,9 +2585,7 @@
       <c r="C26" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -2643,9 +2606,7 @@
       <c r="C27" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -2666,9 +2627,7 @@
       <c r="C28" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -2689,9 +2648,7 @@
       <c r="C29" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -2702,51 +2659,211 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="1" priority="83">
+      <formula>COUNTIF(F10:K10,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="84">
+      <formula>AND(COUNTIF(F10:K10,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="1" priority="95">
+      <formula>COUNTIF(F11:K11,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="96">
+      <formula>AND(COUNTIF(F11:K11,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="1" priority="107">
+      <formula>COUNTIF(F14:K14,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="108">
+      <formula>AND(COUNTIF(F14:K14,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="1" priority="119">
+      <formula>COUNTIF(F15:K15,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="120">
+      <formula>AND(COUNTIF(F15:K15,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="1" priority="131">
+      <formula>COUNTIF(F16:K16,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="132">
+      <formula>AND(COUNTIF(F16:K16,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="1" priority="143">
+      <formula>COUNTIF(F17:K17,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="144">
+      <formula>AND(COUNTIF(F17:K17,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="1" priority="11">
+      <formula>COUNTIF(F2:K2,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="12">
+      <formula>AND(COUNTIF(F2:K2,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="1" priority="155">
+      <formula>COUNTIF(F20:K20,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="156">
+      <formula>AND(COUNTIF(F20:K20,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="1" priority="167">
+      <formula>COUNTIF(F21:K21,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="168">
+      <formula>AND(COUNTIF(F21:K21,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="1" priority="179">
+      <formula>COUNTIF(F22:K22,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="180">
+      <formula>AND(COUNTIF(F22:K22,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="1" priority="191">
+      <formula>COUNTIF(F23:K23,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="192">
+      <formula>AND(COUNTIF(F23:K23,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="1" priority="203">
+      <formula>COUNTIF(F26:K26,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="204">
+      <formula>AND(COUNTIF(F26:K26,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="expression" dxfId="1" priority="215">
+      <formula>COUNTIF(F27:K27,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="216">
+      <formula>AND(COUNTIF(F27:K27,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="1" priority="227">
+      <formula>COUNTIF(F28:K28,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="228">
+      <formula>AND(COUNTIF(F28:K28,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="1" priority="239">
+      <formula>COUNTIF(F29:K29,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="240">
+      <formula>AND(COUNTIF(F29:K29,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="expression" dxfId="1" priority="23">
+      <formula>COUNTIF(F3:K3,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="24">
+      <formula>AND(COUNTIF(F3:K3,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="1" priority="35">
+      <formula>COUNTIF(F4:K4,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="36">
+      <formula>AND(COUNTIF(F4:K4,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="1" priority="47">
+      <formula>COUNTIF(F5:K5,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="48">
+      <formula>AND(COUNTIF(F5:K5,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="1" priority="59">
+      <formula>COUNTIF(F8:K8,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="60">
+      <formula>AND(COUNTIF(F8:K8,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="1" priority="71">
+      <formula>COUNTIF(F9:K9,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="72">
+      <formula>AND(COUNTIF(F9:K9,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="2" priority="61">
+    <cfRule type="expression" dxfId="2" priority="73">
       <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="62">
+    <cfRule type="expression" dxfId="3" priority="74">
       <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="2" priority="71">
+    <cfRule type="expression" dxfId="2" priority="85">
       <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="72">
+    <cfRule type="expression" dxfId="3" priority="86">
       <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="2" priority="81">
+    <cfRule type="expression" dxfId="2" priority="97">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="82">
+    <cfRule type="expression" dxfId="3" priority="98">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="2" priority="91">
+    <cfRule type="expression" dxfId="2" priority="109">
       <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="92">
+    <cfRule type="expression" dxfId="3" priority="110">
       <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="2" priority="101">
+    <cfRule type="expression" dxfId="2" priority="121">
       <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G16)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="102">
+    <cfRule type="expression" dxfId="3" priority="122">
       <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="expression" dxfId="2" priority="111">
+    <cfRule type="expression" dxfId="2" priority="133">
       <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G17)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="112">
+    <cfRule type="expression" dxfId="3" priority="134">
       <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2759,154 +2876,154 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="2" priority="121">
+    <cfRule type="expression" dxfId="2" priority="145">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G20)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="122">
+    <cfRule type="expression" dxfId="3" priority="146">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="2" priority="131">
+    <cfRule type="expression" dxfId="2" priority="157">
       <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="132">
+    <cfRule type="expression" dxfId="3" priority="158">
       <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="2" priority="141">
+    <cfRule type="expression" dxfId="2" priority="169">
       <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G22)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="142">
+    <cfRule type="expression" dxfId="3" priority="170">
       <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="2" priority="151">
+    <cfRule type="expression" dxfId="2" priority="181">
       <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="152">
+    <cfRule type="expression" dxfId="3" priority="182">
       <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="expression" dxfId="2" priority="161">
+    <cfRule type="expression" dxfId="2" priority="193">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="162">
+    <cfRule type="expression" dxfId="3" priority="194">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="expression" dxfId="2" priority="171">
+    <cfRule type="expression" dxfId="2" priority="205">
       <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G27)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="172">
+    <cfRule type="expression" dxfId="3" priority="206">
       <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="expression" dxfId="2" priority="181">
+    <cfRule type="expression" dxfId="2" priority="217">
       <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="182">
+    <cfRule type="expression" dxfId="3" priority="218">
       <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="2" priority="191">
+    <cfRule type="expression" dxfId="2" priority="229">
       <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G29)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="192">
+    <cfRule type="expression" dxfId="3" priority="230">
       <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="expression" dxfId="2" priority="11">
+    <cfRule type="expression" dxfId="2" priority="13">
       <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="12">
+    <cfRule type="expression" dxfId="3" priority="14">
       <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="2" priority="21">
+    <cfRule type="expression" dxfId="2" priority="25">
       <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="22">
+    <cfRule type="expression" dxfId="3" priority="26">
       <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="2" priority="31">
+    <cfRule type="expression" dxfId="2" priority="37">
       <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="32">
+    <cfRule type="expression" dxfId="3" priority="38">
       <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="2" priority="41">
+    <cfRule type="expression" dxfId="2" priority="49">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="42">
+    <cfRule type="expression" dxfId="3" priority="50">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="2" priority="51">
+    <cfRule type="expression" dxfId="2" priority="61">
       <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G9)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="52">
+    <cfRule type="expression" dxfId="3" priority="62">
       <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="2" priority="63">
+    <cfRule type="expression" dxfId="2" priority="75">
       <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="64">
+    <cfRule type="expression" dxfId="3" priority="76">
       <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="2" priority="73">
+    <cfRule type="expression" dxfId="2" priority="87">
       <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="74">
+    <cfRule type="expression" dxfId="3" priority="88">
       <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="2" priority="83">
+    <cfRule type="expression" dxfId="2" priority="99">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="84">
+    <cfRule type="expression" dxfId="3" priority="100">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="2" priority="93">
+    <cfRule type="expression" dxfId="2" priority="111">
       <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="94">
+    <cfRule type="expression" dxfId="3" priority="112">
       <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="2" priority="103">
+    <cfRule type="expression" dxfId="2" priority="123">
       <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H16)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="104">
+    <cfRule type="expression" dxfId="3" priority="124">
       <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="2" priority="113">
+    <cfRule type="expression" dxfId="2" priority="135">
       <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H17)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="114">
+    <cfRule type="expression" dxfId="3" priority="136">
       <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2919,154 +3036,154 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="2" priority="123">
+    <cfRule type="expression" dxfId="2" priority="147">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H20)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="124">
+    <cfRule type="expression" dxfId="3" priority="148">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="2" priority="133">
+    <cfRule type="expression" dxfId="2" priority="159">
       <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="134">
+    <cfRule type="expression" dxfId="3" priority="160">
       <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="2" priority="143">
+    <cfRule type="expression" dxfId="2" priority="171">
       <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H22)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="144">
+    <cfRule type="expression" dxfId="3" priority="172">
       <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="2" priority="153">
+    <cfRule type="expression" dxfId="2" priority="183">
       <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="154">
+    <cfRule type="expression" dxfId="3" priority="184">
       <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="2" priority="163">
+    <cfRule type="expression" dxfId="2" priority="195">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="164">
+    <cfRule type="expression" dxfId="3" priority="196">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="expression" dxfId="2" priority="173">
+    <cfRule type="expression" dxfId="2" priority="207">
       <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H27)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="174">
+    <cfRule type="expression" dxfId="3" priority="208">
       <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="2" priority="183">
+    <cfRule type="expression" dxfId="2" priority="219">
       <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="184">
+    <cfRule type="expression" dxfId="3" priority="220">
       <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="2" priority="193">
+    <cfRule type="expression" dxfId="2" priority="231">
       <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H29)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="194">
+    <cfRule type="expression" dxfId="3" priority="232">
       <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="expression" dxfId="2" priority="13">
+    <cfRule type="expression" dxfId="2" priority="15">
       <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="14">
+    <cfRule type="expression" dxfId="3" priority="16">
       <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="expression" dxfId="2" priority="23">
+    <cfRule type="expression" dxfId="2" priority="27">
       <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="24">
+    <cfRule type="expression" dxfId="3" priority="28">
       <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="2" priority="33">
+    <cfRule type="expression" dxfId="2" priority="39">
       <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="34">
+    <cfRule type="expression" dxfId="3" priority="40">
       <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="2" priority="43">
+    <cfRule type="expression" dxfId="2" priority="51">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="44">
+    <cfRule type="expression" dxfId="3" priority="52">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="2" priority="53">
+    <cfRule type="expression" dxfId="2" priority="63">
       <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H9)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="54">
+    <cfRule type="expression" dxfId="3" priority="64">
       <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="2" priority="65">
+    <cfRule type="expression" dxfId="2" priority="77">
       <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="66">
+    <cfRule type="expression" dxfId="3" priority="78">
       <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="2" priority="75">
+    <cfRule type="expression" dxfId="2" priority="89">
       <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="76">
+    <cfRule type="expression" dxfId="3" priority="90">
       <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="2" priority="85">
+    <cfRule type="expression" dxfId="2" priority="101">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="86">
+    <cfRule type="expression" dxfId="3" priority="102">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="2" priority="95">
+    <cfRule type="expression" dxfId="2" priority="113">
       <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="96">
+    <cfRule type="expression" dxfId="3" priority="114">
       <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="2" priority="105">
+    <cfRule type="expression" dxfId="2" priority="125">
       <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I16)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="106">
+    <cfRule type="expression" dxfId="3" priority="126">
       <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="expression" dxfId="2" priority="115">
+    <cfRule type="expression" dxfId="2" priority="137">
       <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I17)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="116">
+    <cfRule type="expression" dxfId="3" priority="138">
       <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3079,154 +3196,154 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="2" priority="125">
+    <cfRule type="expression" dxfId="2" priority="149">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I20)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="126">
+    <cfRule type="expression" dxfId="3" priority="150">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="2" priority="135">
+    <cfRule type="expression" dxfId="2" priority="161">
       <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="136">
+    <cfRule type="expression" dxfId="3" priority="162">
       <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="2" priority="145">
+    <cfRule type="expression" dxfId="2" priority="173">
       <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I22)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="146">
+    <cfRule type="expression" dxfId="3" priority="174">
       <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="2" priority="155">
+    <cfRule type="expression" dxfId="2" priority="185">
       <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="156">
+    <cfRule type="expression" dxfId="3" priority="186">
       <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="expression" dxfId="2" priority="165">
+    <cfRule type="expression" dxfId="2" priority="197">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="166">
+    <cfRule type="expression" dxfId="3" priority="198">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="expression" dxfId="2" priority="175">
+    <cfRule type="expression" dxfId="2" priority="209">
       <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I27)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="176">
+    <cfRule type="expression" dxfId="3" priority="210">
       <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="2" priority="185">
+    <cfRule type="expression" dxfId="2" priority="221">
       <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="186">
+    <cfRule type="expression" dxfId="3" priority="222">
       <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="2" priority="195">
+    <cfRule type="expression" dxfId="2" priority="233">
       <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I29)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="196">
+    <cfRule type="expression" dxfId="3" priority="234">
       <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="expression" dxfId="2" priority="15">
+    <cfRule type="expression" dxfId="2" priority="17">
       <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="16">
+    <cfRule type="expression" dxfId="3" priority="18">
       <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="2" priority="25">
+    <cfRule type="expression" dxfId="2" priority="29">
       <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="26">
+    <cfRule type="expression" dxfId="3" priority="30">
       <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="2" priority="35">
+    <cfRule type="expression" dxfId="2" priority="41">
       <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="36">
+    <cfRule type="expression" dxfId="3" priority="42">
       <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="2" priority="45">
+    <cfRule type="expression" dxfId="2" priority="53">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="46">
+    <cfRule type="expression" dxfId="3" priority="54">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="2" priority="55">
+    <cfRule type="expression" dxfId="2" priority="65">
       <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I9)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="56">
+    <cfRule type="expression" dxfId="3" priority="66">
       <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="2" priority="67">
+    <cfRule type="expression" dxfId="2" priority="79">
       <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="68">
+    <cfRule type="expression" dxfId="3" priority="80">
       <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="2" priority="77">
+    <cfRule type="expression" dxfId="2" priority="91">
       <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="78">
+    <cfRule type="expression" dxfId="3" priority="92">
       <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="2" priority="87">
+    <cfRule type="expression" dxfId="2" priority="103">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="88">
+    <cfRule type="expression" dxfId="3" priority="104">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="2" priority="97">
+    <cfRule type="expression" dxfId="2" priority="115">
       <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="98">
+    <cfRule type="expression" dxfId="3" priority="116">
       <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="2" priority="107">
+    <cfRule type="expression" dxfId="2" priority="127">
       <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J16)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="108">
+    <cfRule type="expression" dxfId="3" priority="128">
       <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="expression" dxfId="2" priority="117">
+    <cfRule type="expression" dxfId="2" priority="139">
       <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J17)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="118">
+    <cfRule type="expression" dxfId="3" priority="140">
       <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3239,154 +3356,154 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="expression" dxfId="2" priority="127">
+    <cfRule type="expression" dxfId="2" priority="151">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J20)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="128">
+    <cfRule type="expression" dxfId="3" priority="152">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="expression" dxfId="2" priority="137">
+    <cfRule type="expression" dxfId="2" priority="163">
       <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="138">
+    <cfRule type="expression" dxfId="3" priority="164">
       <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="expression" dxfId="2" priority="147">
+    <cfRule type="expression" dxfId="2" priority="175">
       <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J22)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="148">
+    <cfRule type="expression" dxfId="3" priority="176">
       <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="expression" dxfId="2" priority="157">
+    <cfRule type="expression" dxfId="2" priority="187">
       <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="158">
+    <cfRule type="expression" dxfId="3" priority="188">
       <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="expression" dxfId="2" priority="167">
+    <cfRule type="expression" dxfId="2" priority="199">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="168">
+    <cfRule type="expression" dxfId="3" priority="200">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="expression" dxfId="2" priority="177">
+    <cfRule type="expression" dxfId="2" priority="211">
       <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J27)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="178">
+    <cfRule type="expression" dxfId="3" priority="212">
       <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="expression" dxfId="2" priority="187">
+    <cfRule type="expression" dxfId="2" priority="223">
       <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="188">
+    <cfRule type="expression" dxfId="3" priority="224">
       <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="expression" dxfId="2" priority="197">
+    <cfRule type="expression" dxfId="2" priority="235">
       <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J29)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="198">
+    <cfRule type="expression" dxfId="3" priority="236">
       <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="expression" dxfId="2" priority="17">
+    <cfRule type="expression" dxfId="2" priority="19">
       <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="18">
+    <cfRule type="expression" dxfId="3" priority="20">
       <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="expression" dxfId="2" priority="27">
+    <cfRule type="expression" dxfId="2" priority="31">
       <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="28">
+    <cfRule type="expression" dxfId="3" priority="32">
       <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="2" priority="37">
+    <cfRule type="expression" dxfId="2" priority="43">
       <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="38">
+    <cfRule type="expression" dxfId="3" priority="44">
       <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="2" priority="47">
+    <cfRule type="expression" dxfId="2" priority="55">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="48">
+    <cfRule type="expression" dxfId="3" priority="56">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="expression" dxfId="2" priority="57">
+    <cfRule type="expression" dxfId="2" priority="67">
       <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J9)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="58">
+    <cfRule type="expression" dxfId="3" priority="68">
       <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="2" priority="69">
+    <cfRule type="expression" dxfId="2" priority="81">
       <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="70">
+    <cfRule type="expression" dxfId="3" priority="82">
       <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="2" priority="79">
+    <cfRule type="expression" dxfId="2" priority="93">
       <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="80">
+    <cfRule type="expression" dxfId="3" priority="94">
       <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="expression" dxfId="2" priority="89">
+    <cfRule type="expression" dxfId="2" priority="105">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="90">
+    <cfRule type="expression" dxfId="3" priority="106">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="2" priority="99">
+    <cfRule type="expression" dxfId="2" priority="117">
       <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="100">
+    <cfRule type="expression" dxfId="3" priority="118">
       <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="2" priority="109">
+    <cfRule type="expression" dxfId="2" priority="129">
       <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K16)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="110">
+    <cfRule type="expression" dxfId="3" priority="130">
       <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="expression" dxfId="2" priority="119">
+    <cfRule type="expression" dxfId="2" priority="141">
       <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K17)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="120">
+    <cfRule type="expression" dxfId="3" priority="142">
       <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3399,106 +3516,106 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="expression" dxfId="2" priority="129">
+    <cfRule type="expression" dxfId="2" priority="153">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K20)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="130">
+    <cfRule type="expression" dxfId="3" priority="154">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="expression" dxfId="2" priority="139">
+    <cfRule type="expression" dxfId="2" priority="165">
       <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="140">
+    <cfRule type="expression" dxfId="3" priority="166">
       <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="expression" dxfId="2" priority="149">
+    <cfRule type="expression" dxfId="2" priority="177">
       <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K22)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="150">
+    <cfRule type="expression" dxfId="3" priority="178">
       <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="expression" dxfId="2" priority="159">
+    <cfRule type="expression" dxfId="2" priority="189">
       <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="160">
+    <cfRule type="expression" dxfId="3" priority="190">
       <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="expression" dxfId="2" priority="169">
+    <cfRule type="expression" dxfId="2" priority="201">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="170">
+    <cfRule type="expression" dxfId="3" priority="202">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27">
-    <cfRule type="expression" dxfId="2" priority="179">
+    <cfRule type="expression" dxfId="2" priority="213">
       <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K27)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="180">
+    <cfRule type="expression" dxfId="3" priority="214">
       <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="expression" dxfId="2" priority="189">
+    <cfRule type="expression" dxfId="2" priority="225">
       <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="190">
+    <cfRule type="expression" dxfId="3" priority="226">
       <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
-    <cfRule type="expression" dxfId="2" priority="199">
+    <cfRule type="expression" dxfId="2" priority="237">
       <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K29)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="200">
+    <cfRule type="expression" dxfId="3" priority="238">
       <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="expression" dxfId="2" priority="19">
+    <cfRule type="expression" dxfId="2" priority="21">
       <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="20">
+    <cfRule type="expression" dxfId="3" priority="22">
       <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="expression" dxfId="2" priority="29">
+    <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="30">
+    <cfRule type="expression" dxfId="3" priority="34">
       <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="2" priority="39">
+    <cfRule type="expression" dxfId="2" priority="45">
       <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="40">
+    <cfRule type="expression" dxfId="3" priority="46">
       <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="2" priority="49">
+    <cfRule type="expression" dxfId="2" priority="57">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="50">
+    <cfRule type="expression" dxfId="3" priority="58">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="2" priority="59">
+    <cfRule type="expression" dxfId="2" priority="69">
       <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K9)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="60">
+    <cfRule type="expression" dxfId="3" priority="70">
       <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tests/databooks/progbook_hypertension.xlsx
+++ b/tests/databooks/progbook_hypertension.xlsx
@@ -1999,31 +1999,31 @@
   </conditionalFormatting>
   <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
       <formula1>"people/year,people"</formula1>
